--- a/SuperQuant_FrameWork/SuperQuant_Monitor/Futures_Monitor.xlsx
+++ b/SuperQuant_FrameWork/SuperQuant_Monitor/Futures_Monitor.xlsx
@@ -443,68 +443,68 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>588.20000000000005</v>
+        <v>596.80000000000007</v>
         <stp/>
         <stp>ZC909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E29" s="1"/>
+        <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>5510</v>
+        <v>5514</v>
         <stp/>
         <stp>Y1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E20" s="1"/>
-      </tp>
-      <tp>
-        <v>6785</v>
-        <stp/>
-        <stp>V1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>6006</v>
+        <v>6825</v>
+        <stp/>
+        <stp>V1909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E8" s="1"/>
+      </tp>
+      <tp>
+        <v>6058</v>
         <stp/>
         <stp>TA909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E19" s="1"/>
+        <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>2230</v>
+        <v>2226</v>
         <stp/>
         <stp>RM909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E13" s="1"/>
-      </tp>
-      <tp>
-        <v>5882</v>
-        <stp/>
-        <stp>SF909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>7286</v>
+        <v>5854</v>
+        <stp/>
+        <stp>SF909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E25" s="1"/>
+      </tp>
+      <tp>
+        <v>7236</v>
         <stp/>
         <stp>SM909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E33" s="1"/>
+        <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>5340</v>
+        <v>5360</v>
         <stp/>
         <stp>SR909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E8" s="1"/>
+        <tr r="E14" s="1"/>
       </tp>
       <tp>
         <v>4616</v>
@@ -512,10 +512,10 @@
         <stp>P1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E15" s="1"/>
+        <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>6991</v>
+        <v>6996</v>
         <stp/>
         <stp>OI909</stp>
         <stp>rt_last</stp>
@@ -523,20 +523,20 @@
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>8330</v>
+        <v>8295</v>
         <stp/>
         <stp>L1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E31" s="1"/>
+        <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>2439</v>
+        <v>2457</v>
         <stp/>
         <stp>MA909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E9" s="1"/>
+        <tr r="E4" s="1"/>
       </tp>
       <tp>
         <v>2611</v>
@@ -544,159 +544,159 @@
         <stp>M1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E27" s="1"/>
+        <tr r="E29" s="1"/>
       </tp>
       <tp>
-        <v>2050</v>
+        <v>2033.5</v>
         <stp/>
         <stp>J1909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E26" s="1"/>
+      </tp>
+      <tp>
+        <v>627</v>
+        <stp/>
+        <stp>I1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>621.5</v>
-        <stp/>
-        <stp>I1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E25" s="1"/>
-      </tp>
-      <tp>
-        <v>1342</v>
+        <v>1351</v>
         <stp/>
         <stp>FG909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E4" s="1"/>
+        <tr r="E12" s="1"/>
       </tp>
       <tp>
-        <v>15845</v>
+        <v>15880</v>
         <stp/>
         <stp>CF909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E17" s="1"/>
+      </tp>
+      <tp>
+        <v>21655</v>
+        <stp/>
+        <stp>ZN1906</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E27" s="1"/>
+      </tp>
+      <tp>
+        <v>11480</v>
+        <stp/>
+        <stp>RU1909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E11" s="1"/>
+      </tp>
+      <tp>
+        <v>5396</v>
+        <stp/>
+        <stp>SP1909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E24" s="1"/>
+      </tp>
+      <tp>
+        <v>3773</v>
+        <stp/>
+        <stp>RB1910</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E5" s="1"/>
+      </tp>
+      <tp>
+        <v>8643</v>
+        <stp/>
+        <stp>PP1909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E13" s="1"/>
+      </tp>
+      <tp>
+        <v>16575</v>
+        <stp/>
+        <stp>PB1906</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E30" s="1"/>
+      </tp>
+      <tp>
+        <v>1330.5</v>
+        <stp/>
+        <stp>JM1909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E31" s="1"/>
+      </tp>
+      <tp>
+        <v>3708</v>
+        <stp/>
+        <stp>HC1910</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E7" s="1"/>
+      </tp>
+      <tp>
+        <v>98550</v>
+        <stp/>
+        <stp>Ni1906</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E15" s="1"/>
+      </tp>
+      <tp>
+        <v>3540</v>
+        <stp/>
+        <stp>BU1909</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E2" s="1"/>
+      </tp>
+      <tp>
+        <v>49250</v>
+        <stp/>
+        <stp>CU1906</stp>
+        <stp>rt_last</stp>
+        <stp>RT_Price</stp>
+        <tr r="E33" s="1"/>
+      </tp>
+      <tp>
+        <v>2385</v>
+        <stp/>
+        <stp>CS1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>21640</v>
+        <v>14190</v>
         <stp/>
-        <stp>ZN1906</stp>
+        <stp>AL1906</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E17" s="1"/>
+        <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>11470</v>
+        <v>2898</v>
         <stp/>
-        <stp>RU1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E16" s="1"/>
-      </tp>
-      <tp>
-        <v>5380</v>
-        <stp/>
-        <stp>SP1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E14" s="1"/>
-      </tp>
-      <tp>
-        <v>3738</v>
-        <stp/>
-        <stp>RB1910</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E10" s="1"/>
-      </tp>
-      <tp>
-        <v>8649</v>
-        <stp/>
-        <stp>PP1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E22" s="1"/>
-      </tp>
-      <tp>
-        <v>16500</v>
-        <stp/>
-        <stp>PB1906</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E12" s="1"/>
-      </tp>
-      <tp>
-        <v>1336.5</v>
-        <stp/>
-        <stp>JM1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E5" s="1"/>
-      </tp>
-      <tp>
-        <v>3686</v>
-        <stp/>
-        <stp>HC1910</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E6" s="1"/>
-      </tp>
-      <tp>
-        <v>99230</v>
-        <stp/>
-        <stp>Ni1906</stp>
+        <stp>FU1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>3470</v>
-        <stp/>
-        <stp>BU1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E7" s="1"/>
-      </tp>
-      <tp>
-        <v>49530</v>
-        <stp/>
-        <stp>CU1906</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E30" s="1"/>
-      </tp>
-      <tp>
-        <v>2376</v>
-        <stp/>
-        <stp>CS1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E11" s="1"/>
-      </tp>
-      <tp>
-        <v>14080</v>
-        <stp/>
-        <stp>AL1906</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E24" s="1"/>
-      </tp>
-      <tp>
-        <v>2848</v>
-        <stp/>
-        <stp>FU1909</stp>
-        <stp>rt_last</stp>
-        <stp>RT_Price</stp>
-        <tr r="E2" s="1"/>
-      </tp>
-      <tp>
-        <v>4835</v>
+        <v>4846</v>
         <stp/>
         <stp>EG1909</stp>
         <stp>rt_last</stp>
         <stp>RT_Price</stp>
-        <tr r="E26" s="1"/>
+        <tr r="E10" s="1"/>
       </tp>
     </main>
   </volType>
@@ -854,6 +854,37 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
@@ -1009,100 +1040,100 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>沥青09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>铁矿09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>甲醇09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>螺纹10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>动力煤09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>热卷10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PVC09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PTA09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>乙二醇09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>橡胶09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>玻璃09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PP09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>白糖09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>沪镍06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>棕榈油09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>棉花09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>豆油09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>沪铝06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>塑料09</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>燃油09</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>硅锰09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>淀粉09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>纸浆09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>硅铁09</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>焦炭09</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>玻璃09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>焦煤09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>热卷10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>沥青09</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>白糖09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>甲醇09</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>螺纹10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>淀粉09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>沪铅06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>菜粕09</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>纸浆09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>棕榈油09</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>橡胶09</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>沪锌06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>PVC09</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>PTA09</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>豆油09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>沪镍06</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>PP09</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>棉花09</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>沪铝06</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>铁矿09</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>乙二醇09</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>豆粕09</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>菜油09</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>动力煤09</c:v>
+                  <c:v>豆粕09</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>沪铅06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>焦煤09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>菜粕09</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>沪铜06</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>塑料09</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>硅铁09</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>硅锰09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1114,100 +1145,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>2.5567158804465251E-2</c:v>
+                  <c:v>2.0172910662824117E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8886679920477212E-2</c:v>
+                  <c:v>8.8495575221239076E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6666666666666607E-2</c:v>
+                  <c:v>7.3800738007379074E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4036418816388396E-2</c:v>
+                  <c:v>9.3632958801497246E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0970927043335132E-2</c:v>
+                  <c:v>1.4620877252635278E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8192488262910755E-2</c:v>
+                  <c:v>5.9685295713509667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0406811731314969E-2</c:v>
+                  <c:v>5.8953574060427449E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9378881987577383E-3</c:v>
+                  <c:v>8.6580086580085869E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.547169811320753E-3</c:v>
+                  <c:v>2.275077559462213E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9171974522292974E-3</c:v>
+                  <c:v>8.7183958151704211E-4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.2493125572868919E-3</c:v>
+                  <c:v>6.7064083457526458E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1374321880651745E-3</c:v>
+                  <c:v>-6.9372181755111839E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8681153990258768E-3</c:v>
+                  <c:v>3.7453183520599342E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.6644880174292478E-3</c:v>
+                  <c:v>-6.8527663005140127E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.1403508771928905E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8757836080799422E-3</c:v>
+                  <c:v>2.2088987062165444E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4411547002221052E-3</c:v>
+                  <c:v>7.2595281306719883E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3311125916046791E-4</c:v>
+                  <c:v>7.8125E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9122679286495146E-3</c:v>
+                  <c:v>-4.2016806722688926E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9457709429380206E-3</c:v>
+                  <c:v>1.7556179775280789E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8988868274582025E-3</c:v>
+                  <c:v>-6.8624759813340486E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.8481012658228E-3</c:v>
+                  <c:v>3.7878787878788955E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7787264318747109E-3</c:v>
+                  <c:v>2.9739776951673846E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4193548387096975E-3</c:v>
+                  <c:v>-4.7602856171370389E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.24249326982806E-3</c:v>
+                  <c:v>-8.0487804878048852E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1503067484661678E-3</c:v>
+                  <c:v>6.9316081330872414E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.2893909064911639E-4</c:v>
+                  <c:v>7.1520526391077865E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8050357264382022E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.0606060606049894E-4</c:v>
+                  <c:v>4.5454545454546302E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-4.4893378226711356E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-2.7127839945744192E-3</c:v>
+                  <c:v>-1.7937219730941312E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-8.437670114316842E-3</c:v>
+                  <c:v>-5.6531395114072236E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1224,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="452828048"/>
-        <c:axId val="452828608"/>
+        <c:axId val="414926672"/>
+        <c:axId val="414927232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="452828048"/>
+        <c:axId val="414926672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452828608"/>
+        <c:crossAx val="414927232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1278,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452828608"/>
+        <c:axId val="414927232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1328,7 +1359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452828048"/>
+        <c:crossAx val="414926672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,100 +1687,100 @@
               <c:strCache>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>沥青09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>铁矿09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>甲醇09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>螺纹10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>动力煤09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>热卷10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PVC09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PTA09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>乙二醇09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>橡胶09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>玻璃09</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PP09</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>白糖09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>沪镍06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>棕榈油09</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>棉花09</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>豆油09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>沪铝06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>塑料09</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>燃油09</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="20">
+                  <c:v>硅锰09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>淀粉09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>纸浆09</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>硅铁09</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>焦炭09</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>玻璃09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>焦煤09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>热卷10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>沥青09</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>白糖09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>甲醇09</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>螺纹10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>淀粉09</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>沪铅06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>菜粕09</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>纸浆09</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>棕榈油09</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>橡胶09</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
                   <c:v>沪锌06</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>PVC09</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>PTA09</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>豆油09</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>沪镍06</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>PP09</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>棉花09</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>沪铝06</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>铁矿09</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>乙二醇09</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>豆粕09</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>菜油09</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>动力煤09</c:v>
+                  <c:v>豆粕09</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>沪铅06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>焦煤09</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>菜粕09</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>沪铜06</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>塑料09</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>硅铁09</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>硅锰09</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1761,100 +1792,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.6779721528025648E-2</c:v>
+                  <c:v>4.9822064056939563E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3984575835475557E-2</c:v>
+                  <c:v>6.3613231552162919E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9504260263361735E-2</c:v>
+                  <c:v>-4.0535062829347712E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4036418816388396E-2</c:v>
+                  <c:v>8.7946943483275586E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.7168500289519484E-2</c:v>
+                  <c:v>3.0742659758203894E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9062870699881449E-2</c:v>
+                  <c:v>7.3537927041111839E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8054289677035964E-2</c:v>
+                  <c:v>4.2780748663101553E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1349817592217315E-2</c:v>
+                  <c:v>1.9522046449007124E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.7854671280276788E-2</c:v>
+                  <c:v>-1.7237882782397129E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2145960034752452E-2</c:v>
+                  <c:v>-7.349762213575417E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.4042426053181956E-2</c:v>
+                  <c:v>4.6475600309837439E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.2935779816513735E-2</c:v>
+                  <c:v>4.0322580645161255E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9711902956785377E-2</c:v>
+                  <c:v>6.2017039825638998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>-1.7251695253290733E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>4.7888550282977338E-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>-8.2144401210548779E-3</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.4575061342850821E-2</c:v>
+                  <c:v>2.4846724749919336E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6669213139801426E-2</c:v>
+                  <c:v>-3.9739884393064084E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0770784247728038E-2</c:v>
+                  <c:v>3.0875408645114399E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.6965317919075433E-3</c:v>
+                  <c:v>1.1585365853658436E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0470682090147565E-2</c:v>
+                  <c:v>3.4630489111031837E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.1044776119403048E-2</c:v>
+                  <c:v>-3.2102728731942198E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2587931590835719E-2</c:v>
+                  <c:v>3.6055603822762849E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2884126407555438E-2</c:v>
+                  <c:v>2.2744503411675554E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.428329092451234E-2</c:v>
+                  <c:v>-8.4688346883469157E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.9468667613060209E-2</c:v>
+                  <c:v>4.5501285347043785E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>-3.3905866607182644E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0106843777071939E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1.5163297045100999E-2</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.3849263644238956E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5889464594127878E-2</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.2469337694194671E-2</c:v>
+                  <c:v>-9.5608007170600029E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.585365853658538E-2</c:v>
+                  <c:v>9.4840667678299795E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-3.7262872628726074E-3</c:v>
+                  <c:v>2.1100917431192689E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-2.5414660246120935E-2</c:v>
+                  <c:v>6.7457072771872628E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,11 +1901,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="452830848"/>
-        <c:axId val="665031584"/>
+        <c:axId val="414929472"/>
+        <c:axId val="414930032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="452830848"/>
+        <c:axId val="414929472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="665031584"/>
+        <c:crossAx val="414930032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1924,7 +1955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="665031584"/>
+        <c:axId val="414930032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1974,7 +2005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452830848"/>
+        <c:crossAx val="414929472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3483,7 +3514,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z51" sqref="Z51"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3519,748 +3550,747 @@
       </c>
       <c r="G1" s="4">
         <f ca="1">NOW()</f>
-        <v>43574.625087615743</v>
+        <v>43577.718162962963</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5">
         <f>[1]!s_mq_preclose(B2,"",1)</f>
-        <v>2801</v>
+        <v>3372</v>
       </c>
       <c r="D2" s="5">
         <f>[1]!s_dq_preclose(B2,"",1)</f>
-        <v>2777</v>
+        <v>3470</v>
       </c>
       <c r="E2" s="6">
         <f>RTD("wdf.rtq", ,B2, "rt_last","RT_Price")</f>
-        <v>2848</v>
+        <v>3540</v>
       </c>
       <c r="F2" s="7">
         <f>E2/C2-1</f>
-        <v>1.6779721528025648E-2</v>
+        <v>4.9822064056939563E-2</v>
       </c>
       <c r="G2" s="8">
         <f>E2/D2-1</f>
-        <v>2.5567158804465251E-2</v>
+        <v>2.0172910662824117E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>[1]!s_info_code("j1909.DCE")</f>
-        <v>J1909</v>
+        <f>[1]!s_info_code("i1909.DCE")</f>
+        <v>I1909</v>
       </c>
       <c r="C3" s="5">
         <f>[1]!s_mq_preclose(B3,"",1)</f>
-        <v>1945</v>
+        <v>589.5</v>
       </c>
       <c r="D3" s="5">
         <f>[1]!s_dq_preclose(B3,"",1)</f>
-        <v>2012</v>
+        <v>621.5</v>
       </c>
       <c r="E3" s="6">
         <f>RTD("wdf.rtq", ,B3, "rt_last","RT_Price")</f>
-        <v>2050</v>
+        <v>627</v>
       </c>
       <c r="F3" s="7">
         <f>E3/C3-1</f>
-        <v>5.3984575835475557E-2</v>
+        <v>6.3613231552162919E-2</v>
       </c>
       <c r="G3" s="8">
         <f>E3/D3-1</f>
-        <v>1.8886679920477212E-2</v>
+        <v>8.8495575221239076E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="14" t="str">
-        <f>[1]!s_info_code("FG909.CZC")</f>
-        <v>FG909</v>
-      </c>
-      <c r="C4" s="15">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="5">
         <f>[1]!s_mq_preclose(B4,"",1)</f>
-        <v>1291</v>
+        <v>2467</v>
       </c>
       <c r="D4" s="5">
         <f>[1]!s_dq_preclose(B4,"",1)</f>
-        <v>1320</v>
-      </c>
-      <c r="E4" s="16">
+        <v>2439</v>
+      </c>
+      <c r="E4" s="6">
         <f>RTD("wdf.rtq", ,B4, "rt_last","RT_Price")</f>
-        <v>1342</v>
-      </c>
-      <c r="F4" s="18">
+        <v>2457</v>
+      </c>
+      <c r="F4" s="7">
         <f>E4/C4-1</f>
-        <v>3.9504260263361735E-2</v>
+        <v>-4.0535062829347712E-3</v>
       </c>
       <c r="G4" s="8">
         <f>E4/D4-1</f>
-        <v>1.6666666666666607E-2</v>
+        <v>7.3800738007379074E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>[1]!s_info_code("jm1909.DCE")</f>
-        <v>JM1909</v>
+        <f>[1]!s_info_code("RB1910.SHF")</f>
+        <v>RB1910</v>
       </c>
       <c r="C5" s="5">
         <f>[1]!s_mq_preclose(B5,"",1)</f>
-        <v>1318</v>
+        <v>3468</v>
       </c>
       <c r="D5" s="5">
         <f>[1]!s_dq_preclose(B5,"",1)</f>
-        <v>1318</v>
+        <v>3738</v>
       </c>
       <c r="E5" s="6">
         <f>RTD("wdf.rtq", ,B5, "rt_last","RT_Price")</f>
-        <v>1336.5</v>
+        <v>3773</v>
       </c>
       <c r="F5" s="7">
         <f>E5/C5-1</f>
-        <v>1.4036418816388396E-2</v>
+        <v>8.7946943483275586E-2</v>
       </c>
       <c r="G5" s="8">
         <f>E5/D5-1</f>
-        <v>1.4036418816388396E-2</v>
+        <v>9.3632958801497246E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>[1]!s_info_code("HC1910.SHF")</f>
-        <v>HC1910</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="5">
         <f>[1]!s_mq_preclose(B6,"",1)</f>
-        <v>3454</v>
+        <v>579</v>
       </c>
       <c r="D6" s="5">
         <f>[1]!s_dq_preclose(B6,"",1)</f>
-        <v>3646</v>
+        <v>588.20000000000005</v>
       </c>
       <c r="E6" s="6">
         <f>RTD("wdf.rtq", ,B6, "rt_last","RT_Price")</f>
-        <v>3686</v>
+        <v>596.80000000000007</v>
       </c>
       <c r="F6" s="7">
         <f>E6/C6-1</f>
-        <v>6.7168500289519484E-2</v>
+        <v>3.0742659758203894E-2</v>
       </c>
       <c r="G6" s="8">
         <f>E6/D6-1</f>
-        <v>1.0970927043335132E-2</v>
+        <v>1.4620877252635278E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1">
       <c r="A7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>[1]!s_info_code("HC1910.SHF")</f>
+        <v>HC1910</v>
       </c>
       <c r="C7" s="5">
         <f>[1]!s_mq_preclose(B7,"",1)</f>
-        <v>3372</v>
+        <v>3454</v>
       </c>
       <c r="D7" s="5">
         <f>[1]!s_dq_preclose(B7,"",1)</f>
-        <v>3408</v>
+        <v>3686</v>
       </c>
       <c r="E7" s="6">
         <f>RTD("wdf.rtq", ,B7, "rt_last","RT_Price")</f>
-        <v>3470</v>
+        <v>3708</v>
       </c>
       <c r="F7" s="7">
         <f>E7/C7-1</f>
-        <v>2.9062870699881449E-2</v>
+        <v>7.3537927041111839E-2</v>
       </c>
       <c r="G7" s="8">
         <f>E7/D7-1</f>
-        <v>1.8192488262910755E-2</v>
+        <v>5.9685295713509667E-3</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5">
         <f>[1]!s_mq_preclose(B8,"",1)</f>
-        <v>5047</v>
+        <v>6545</v>
       </c>
       <c r="D8" s="5">
         <f>[1]!s_dq_preclose(B8,"",1)</f>
-        <v>5285</v>
+        <v>6785</v>
       </c>
       <c r="E8" s="6">
         <f>RTD("wdf.rtq", ,B8, "rt_last","RT_Price")</f>
-        <v>5340</v>
+        <v>6825</v>
       </c>
       <c r="F8" s="7">
         <f>E8/C8-1</f>
-        <v>5.8054289677035964E-2</v>
+        <v>4.2780748663101553E-2</v>
       </c>
       <c r="G8" s="8">
         <f>E8/D8-1</f>
-        <v>1.0406811731314969E-2</v>
+        <v>5.8953574060427449E-3</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5">
         <f>[1]!s_mq_preclose(B9,"",1)</f>
-        <v>2467</v>
+        <v>5942</v>
       </c>
       <c r="D9" s="5">
         <f>[1]!s_dq_preclose(B9,"",1)</f>
-        <v>2415</v>
+        <v>6006</v>
       </c>
       <c r="E9" s="6">
         <f>RTD("wdf.rtq", ,B9, "rt_last","RT_Price")</f>
-        <v>2439</v>
+        <v>6058</v>
       </c>
       <c r="F9" s="7">
         <f>E9/C9-1</f>
-        <v>-1.1349817592217315E-2</v>
+        <v>1.9522046449007124E-2</v>
       </c>
       <c r="G9" s="8">
         <f>E9/D9-1</f>
-        <v>9.9378881987577383E-3</v>
+        <v>8.6580086580085869E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
       <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="1" t="str">
-        <f>[1]!s_info_code("RB1910.SHF")</f>
-        <v>RB1910</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <f>[1]!s_mq_preclose(B10,"",1)</f>
-        <v>3468</v>
+        <v>4931</v>
       </c>
       <c r="D10" s="5">
         <f>[1]!s_dq_preclose(B10,"",1)</f>
-        <v>3710</v>
+        <v>4835</v>
       </c>
       <c r="E10" s="6">
         <f>RTD("wdf.rtq", ,B10, "rt_last","RT_Price")</f>
-        <v>3738</v>
+        <v>4846</v>
       </c>
       <c r="F10" s="7">
         <f>E10/C10-1</f>
-        <v>7.7854671280276788E-2</v>
+        <v>-1.7237882782397129E-2</v>
       </c>
       <c r="G10" s="8">
         <f>E10/D10-1</f>
-        <v>7.547169811320753E-3</v>
+        <v>2.275077559462213E-3</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C11" s="5">
         <f>[1]!s_mq_preclose(B11,"",1)</f>
-        <v>2302</v>
+        <v>11565</v>
       </c>
       <c r="D11" s="5">
         <f>[1]!s_dq_preclose(B11,"",1)</f>
-        <v>2355</v>
+        <v>11470</v>
       </c>
       <c r="E11" s="6">
         <f>RTD("wdf.rtq", ,B11, "rt_last","RT_Price")</f>
-        <v>2376</v>
+        <v>11480</v>
       </c>
       <c r="F11" s="7">
         <f>E11/C11-1</f>
-        <v>3.2145960034752452E-2</v>
+        <v>-7.349762213575417E-3</v>
       </c>
       <c r="G11" s="8">
         <f>E11/D11-1</f>
-        <v>8.9171974522292974E-3</v>
+        <v>8.7183958151704211E-4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5">
+      <c r="A12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="14" t="str">
+        <f>[1]!s_info_code("FG909.CZC")</f>
+        <v>FG909</v>
+      </c>
+      <c r="C12" s="15">
         <f>[1]!s_mq_preclose(B12,"",1)</f>
-        <v>16735</v>
+        <v>1291</v>
       </c>
       <c r="D12" s="5">
         <f>[1]!s_dq_preclose(B12,"",1)</f>
-        <v>16365</v>
-      </c>
-      <c r="E12" s="6">
+        <v>1342</v>
+      </c>
+      <c r="E12" s="16">
         <f>RTD("wdf.rtq", ,B12, "rt_last","RT_Price")</f>
-        <v>16500</v>
-      </c>
-      <c r="F12" s="7">
+        <v>1351</v>
+      </c>
+      <c r="F12" s="18">
         <f>E12/C12-1</f>
-        <v>-1.4042426053181956E-2</v>
+        <v>4.6475600309837439E-2</v>
       </c>
       <c r="G12" s="8">
         <f>E12/D12-1</f>
-        <v>8.2493125572868919E-3</v>
+        <v>6.7064083457526458E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <f>[1]!s_mq_preclose(B13,"",1)</f>
-        <v>2180</v>
+        <v>8308</v>
       </c>
       <c r="D13" s="5">
         <f>[1]!s_dq_preclose(B13,"",1)</f>
-        <v>2212</v>
+        <v>8649</v>
       </c>
       <c r="E13" s="6">
         <f>RTD("wdf.rtq", ,B13, "rt_last","RT_Price")</f>
-        <v>2230</v>
+        <v>8643</v>
       </c>
       <c r="F13" s="7">
         <f>E13/C13-1</f>
-        <v>2.2935779816513735E-2</v>
+        <v>4.0322580645161255E-2</v>
       </c>
       <c r="G13" s="8">
         <f>E13/D13-1</f>
-        <v>8.1374321880651745E-3</v>
+        <v>-6.9372181755111839E-4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5">
         <f>[1]!s_mq_preclose(B14,"",1)</f>
-        <v>5276</v>
+        <v>5047</v>
       </c>
       <c r="D14" s="5">
         <f>[1]!s_dq_preclose(B14,"",1)</f>
-        <v>5338</v>
+        <v>5340</v>
       </c>
       <c r="E14" s="6">
         <f>RTD("wdf.rtq", ,B14, "rt_last","RT_Price")</f>
-        <v>5380</v>
+        <v>5360</v>
       </c>
       <c r="F14" s="7">
         <f>E14/C14-1</f>
-        <v>1.9711902956785377E-2</v>
+        <v>6.2017039825638998E-2</v>
       </c>
       <c r="G14" s="8">
         <f>E14/D14-1</f>
-        <v>7.8681153990258768E-3</v>
+        <v>3.7453183520599342E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C15" s="5">
         <f>[1]!s_mq_preclose(B15,"",1)</f>
-        <v>4594</v>
+        <v>100280</v>
       </c>
       <c r="D15" s="5">
         <f>[1]!s_dq_preclose(B15,"",1)</f>
-        <v>4590</v>
+        <v>99230</v>
       </c>
       <c r="E15" s="6">
         <f>RTD("wdf.rtq", ,B15, "rt_last","RT_Price")</f>
-        <v>4616</v>
+        <v>98550</v>
       </c>
       <c r="F15" s="7">
         <f>E15/C15-1</f>
-        <v>4.7888550282977338E-3</v>
+        <v>-1.7251695253290733E-2</v>
       </c>
       <c r="G15" s="8">
         <f>E15/D15-1</f>
-        <v>5.6644880174292478E-3</v>
+        <v>-6.8527663005140127E-3</v>
       </c>
       <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <f>[1]!s_mq_preclose(B16,"",1)</f>
-        <v>11565</v>
+        <v>4594</v>
       </c>
       <c r="D16" s="5">
         <f>[1]!s_dq_preclose(B16,"",1)</f>
-        <v>11400</v>
+        <v>4616</v>
       </c>
       <c r="E16" s="6">
         <f>RTD("wdf.rtq", ,B16, "rt_last","RT_Price")</f>
-        <v>11470</v>
+        <v>4616</v>
       </c>
       <c r="F16" s="7">
         <f>E16/C16-1</f>
-        <v>-8.2144401210548779E-3</v>
+        <v>4.7888550282977338E-3</v>
       </c>
       <c r="G16" s="8">
         <f>E16/D16-1</f>
-        <v>6.1403508771928905E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
         <f>[1]!s_mq_preclose(B17,"",1)</f>
-        <v>22415</v>
+        <v>15495</v>
       </c>
       <c r="D17" s="5">
         <f>[1]!s_dq_preclose(B17,"",1)</f>
-        <v>21535</v>
-      </c>
-      <c r="E17" s="16">
+        <v>15845</v>
+      </c>
+      <c r="E17" s="6">
         <f>RTD("wdf.rtq", ,B17, "rt_last","RT_Price")</f>
-        <v>21640</v>
-      </c>
-      <c r="F17" s="17">
+        <v>15880</v>
+      </c>
+      <c r="F17" s="7">
         <f>E17/C17-1</f>
-        <v>-3.4575061342850821E-2</v>
+        <v>2.4846724749919336E-2</v>
       </c>
       <c r="G17" s="8">
         <f>E17/D17-1</f>
-        <v>4.8757836080799422E-3</v>
+        <v>2.2088987062165444E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C18" s="5">
         <f>[1]!s_mq_preclose(B18,"",1)</f>
-        <v>6545</v>
+        <v>5536</v>
       </c>
       <c r="D18" s="5">
         <f>[1]!s_dq_preclose(B18,"",1)</f>
-        <v>6755</v>
+        <v>5510</v>
       </c>
       <c r="E18" s="6">
         <f>RTD("wdf.rtq", ,B18, "rt_last","RT_Price")</f>
-        <v>6785</v>
+        <v>5514</v>
       </c>
       <c r="F18" s="7">
         <f>E18/C18-1</f>
-        <v>3.6669213139801426E-2</v>
+        <v>-3.9739884393064084E-3</v>
       </c>
       <c r="G18" s="8">
         <f>E18/D18-1</f>
-        <v>4.4411547002221052E-3</v>
+        <v>7.2595281306719883E-4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5">
         <f>[1]!s_mq_preclose(B19,"",1)</f>
-        <v>5942</v>
+        <v>13765</v>
       </c>
       <c r="D19" s="5">
         <f>[1]!s_dq_preclose(B19,"",1)</f>
-        <v>6004</v>
+        <v>14080</v>
       </c>
       <c r="E19" s="6">
         <f>RTD("wdf.rtq", ,B19, "rt_last","RT_Price")</f>
-        <v>6006</v>
+        <v>14190</v>
       </c>
       <c r="F19" s="7">
         <f>E19/C19-1</f>
-        <v>1.0770784247728038E-2</v>
+        <v>3.0875408645114399E-2</v>
       </c>
       <c r="G19" s="8">
         <f>E19/D19-1</f>
-        <v>3.3311125916046791E-4</v>
+        <v>7.8125E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C20" s="5">
         <f>[1]!s_mq_preclose(B20,"",1)</f>
-        <v>5536</v>
+        <v>8200</v>
       </c>
       <c r="D20" s="5">
         <f>[1]!s_dq_preclose(B20,"",1)</f>
-        <v>5494</v>
+        <v>8330</v>
       </c>
       <c r="E20" s="6">
         <f>RTD("wdf.rtq", ,B20, "rt_last","RT_Price")</f>
-        <v>5510</v>
+        <v>8295</v>
       </c>
       <c r="F20" s="7">
         <f>E20/C20-1</f>
-        <v>-4.6965317919075433E-3</v>
+        <v>1.1585365853658436E-2</v>
       </c>
       <c r="G20" s="8">
         <f>E20/D20-1</f>
-        <v>2.9122679286495146E-3</v>
+        <v>-4.2016806722688926E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5">
         <f>[1]!s_mq_preclose(B21,"",1)</f>
-        <v>100280</v>
+        <v>2801</v>
       </c>
       <c r="D21" s="5">
         <f>[1]!s_dq_preclose(B21,"",1)</f>
-        <v>98840</v>
+        <v>2848</v>
       </c>
       <c r="E21" s="6">
         <f>RTD("wdf.rtq", ,B21, "rt_last","RT_Price")</f>
-        <v>99230</v>
+        <v>2898</v>
       </c>
       <c r="F21" s="7">
         <f>E21/C21-1</f>
-        <v>-1.0470682090147565E-2</v>
+        <v>3.4630489111031837E-2</v>
       </c>
       <c r="G21" s="8">
         <f>E21/D21-1</f>
-        <v>3.9457709429380206E-3</v>
+        <v>1.7556179775280789E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5">
         <f>[1]!s_mq_preclose(B22,"",1)</f>
-        <v>8308</v>
+        <v>7476</v>
       </c>
       <c r="D22" s="5">
         <f>[1]!s_dq_preclose(B22,"",1)</f>
-        <v>8624</v>
+        <v>7286</v>
       </c>
       <c r="E22" s="6">
         <f>RTD("wdf.rtq", ,B22, "rt_last","RT_Price")</f>
-        <v>8649</v>
+        <v>7236</v>
       </c>
       <c r="F22" s="7">
         <f>E22/C22-1</f>
-        <v>4.1044776119403048E-2</v>
+        <v>-3.2102728731942198E-2</v>
       </c>
       <c r="G22" s="8">
         <f>E22/D22-1</f>
-        <v>2.8988868274582025E-3</v>
+        <v>-6.8624759813340486E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
         <f>[1]!s_mq_preclose(B23,"",1)</f>
-        <v>15495</v>
+        <v>2302</v>
       </c>
       <c r="D23" s="5">
         <f>[1]!s_dq_preclose(B23,"",1)</f>
-        <v>15800</v>
+        <v>2376</v>
       </c>
       <c r="E23" s="6">
         <f>RTD("wdf.rtq", ,B23, "rt_last","RT_Price")</f>
-        <v>15845</v>
+        <v>2385</v>
       </c>
       <c r="F23" s="7">
         <f>E23/C23-1</f>
-        <v>2.2587931590835719E-2</v>
+        <v>3.6055603822762849E-2</v>
       </c>
       <c r="G23" s="8">
         <f>E23/D23-1</f>
-        <v>2.8481012658228E-3</v>
+        <v>3.7878787878788955E-3</v>
       </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5">
         <f>[1]!s_mq_preclose(B24,"",1)</f>
-        <v>13765</v>
+        <v>5276</v>
       </c>
       <c r="D24" s="5">
         <f>[1]!s_dq_preclose(B24,"",1)</f>
-        <v>14055</v>
+        <v>5380</v>
       </c>
       <c r="E24" s="6">
         <f>RTD("wdf.rtq", ,B24, "rt_last","RT_Price")</f>
-        <v>14080</v>
+        <v>5396</v>
       </c>
       <c r="F24" s="7">
         <f>E24/C24-1</f>
-        <v>2.2884126407555438E-2</v>
+        <v>2.2744503411675554E-2</v>
       </c>
       <c r="G24" s="8">
         <f>E24/D24-1</f>
-        <v>1.7787264318747109E-3</v>
+        <v>2.9739776951673846E-3</v>
       </c>
       <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1" t="str">
-        <f>[1]!s_info_code("i1909.DCE")</f>
-        <v>I1909</v>
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C25" s="5">
         <f>[1]!s_mq_preclose(B25,"",1)</f>
-        <v>589.5</v>
+        <v>5904</v>
       </c>
       <c r="D25" s="5">
         <f>[1]!s_dq_preclose(B25,"",1)</f>
-        <v>620</v>
+        <v>5882</v>
       </c>
       <c r="E25" s="6">
         <f>RTD("wdf.rtq", ,B25, "rt_last","RT_Price")</f>
-        <v>621.5</v>
+        <v>5854</v>
       </c>
       <c r="F25" s="7">
         <f>E25/C25-1</f>
-        <v>5.428329092451234E-2</v>
+        <v>-8.4688346883469157E-3</v>
       </c>
       <c r="G25" s="8">
         <f>E25/D25-1</f>
-        <v>2.4193548387096975E-3</v>
+        <v>-4.7602856171370389E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="str">
+        <f>[1]!s_info_code("j1909.DCE")</f>
+        <v>J1909</v>
       </c>
       <c r="C26" s="5">
         <f>[1]!s_mq_preclose(B26,"",1)</f>
-        <v>4931</v>
+        <v>1945</v>
       </c>
       <c r="D26" s="5">
         <f>[1]!s_dq_preclose(B26,"",1)</f>
-        <v>4829</v>
+        <v>2050</v>
       </c>
       <c r="E26" s="6">
         <f>RTD("wdf.rtq", ,B26, "rt_last","RT_Price")</f>
-        <v>4835</v>
+        <v>2033.5</v>
       </c>
       <c r="F26" s="7">
         <f>E26/C26-1</f>
-        <v>-1.9468667613060209E-2</v>
+        <v>4.5501285347043785E-2</v>
       </c>
       <c r="G26" s="8">
         <f>E26/D26-1</f>
-        <v>1.24249326982806E-3</v>
+        <v>-8.0487804878048852E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="5">
+      <c r="A27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="15">
         <f>[1]!s_mq_preclose(B27,"",1)</f>
-        <v>2572</v>
+        <v>22415</v>
       </c>
       <c r="D27" s="5">
         <f>[1]!s_dq_preclose(B27,"",1)</f>
-        <v>2608</v>
-      </c>
-      <c r="E27" s="6">
+        <v>21640</v>
+      </c>
+      <c r="E27" s="16">
         <f>RTD("wdf.rtq", ,B27, "rt_last","RT_Price")</f>
-        <v>2611</v>
-      </c>
-      <c r="F27" s="7">
+        <v>21655</v>
+      </c>
+      <c r="F27" s="17">
         <f>E27/C27-1</f>
-        <v>1.5163297045100999E-2</v>
+        <v>-3.3905866607182644E-2</v>
       </c>
       <c r="G27" s="8">
         <f>E27/D27-1</f>
-        <v>1.1503067484661678E-3</v>
+        <v>6.9316081330872414E-4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4276,168 +4306,169 @@
       </c>
       <c r="D28" s="5">
         <f>[1]!s_dq_preclose(B28,"",1)</f>
-        <v>6994</v>
+        <v>6991</v>
       </c>
       <c r="E28" s="6">
         <f>RTD("wdf.rtq", ,B28, "rt_last","RT_Price")</f>
-        <v>6991</v>
+        <v>6996</v>
       </c>
       <c r="F28" s="7">
         <f>E28/C28-1</f>
-        <v>9.3849263644238956E-3</v>
+        <v>1.0106843777071939E-2</v>
       </c>
       <c r="G28" s="8">
         <f>E28/D28-1</f>
-        <v>-4.2893909064911639E-4</v>
+        <v>7.1520526391077865E-4</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C29" s="5">
         <f>[1]!s_mq_preclose(B29,"",1)</f>
-        <v>579</v>
+        <v>2572</v>
       </c>
       <c r="D29" s="5">
         <f>[1]!s_dq_preclose(B29,"",1)</f>
-        <v>587.79999999999995</v>
+        <v>2611</v>
       </c>
       <c r="E29" s="6">
         <f>RTD("wdf.rtq", ,B29, "rt_last","RT_Price")</f>
-        <v>588.20000000000005</v>
+        <v>2611</v>
       </c>
       <c r="F29" s="7">
         <f>E29/C29-1</f>
-        <v>1.5889464594127878E-2</v>
+        <v>1.5163297045100999E-2</v>
       </c>
       <c r="G29" s="8">
         <f>E29/D29-1</f>
-        <v>6.8050357264382022E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C30" s="5">
         <f>[1]!s_mq_preclose(B30,"",1)</f>
-        <v>48920</v>
+        <v>16735</v>
       </c>
       <c r="D30" s="5">
         <f>[1]!s_dq_preclose(B30,"",1)</f>
-        <v>49500</v>
+        <v>16500</v>
       </c>
       <c r="E30" s="6">
         <f>RTD("wdf.rtq", ,B30, "rt_last","RT_Price")</f>
-        <v>49530</v>
+        <v>16575</v>
       </c>
       <c r="F30" s="7">
         <f>E30/C30-1</f>
-        <v>1.2469337694194671E-2</v>
+        <v>-9.5608007170600029E-3</v>
       </c>
       <c r="G30" s="8">
         <f>E30/D30-1</f>
-        <v>6.0606060606049894E-4</v>
+        <v>4.5454545454546302E-3</v>
       </c>
       <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <f>[1]!s_info_code("jm1909.DCE")</f>
+        <v>JM1909</v>
       </c>
       <c r="C31" s="5">
         <f>[1]!s_mq_preclose(B31,"",1)</f>
-        <v>8200</v>
+        <v>1318</v>
       </c>
       <c r="D31" s="5">
         <f>[1]!s_dq_preclose(B31,"",1)</f>
-        <v>8330</v>
+        <v>1336.5</v>
       </c>
       <c r="E31" s="6">
         <f>RTD("wdf.rtq", ,B31, "rt_last","RT_Price")</f>
-        <v>8330</v>
+        <v>1330.5</v>
       </c>
       <c r="F31" s="7">
         <f>E31/C31-1</f>
-        <v>1.585365853658538E-2</v>
+        <v>9.4840667678299795E-3</v>
       </c>
       <c r="G31" s="8">
         <f>E31/D31-1</f>
-        <v>0</v>
+        <v>-4.4893378226711356E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5">
         <f>[1]!s_mq_preclose(B32,"",1)</f>
-        <v>5904</v>
+        <v>2180</v>
       </c>
       <c r="D32" s="5">
         <f>[1]!s_dq_preclose(B32,"",1)</f>
-        <v>5898</v>
+        <v>2230</v>
       </c>
       <c r="E32" s="6">
         <f>RTD("wdf.rtq", ,B32, "rt_last","RT_Price")</f>
-        <v>5882</v>
+        <v>2226</v>
       </c>
       <c r="F32" s="7">
         <f>E32/C32-1</f>
-        <v>-3.7262872628726074E-3</v>
+        <v>2.1100917431192689E-2</v>
       </c>
       <c r="G32" s="8">
         <f>E32/D32-1</f>
-        <v>-2.7127839945744192E-3</v>
+        <v>-1.7937219730941312E-3</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C33" s="5">
         <f>[1]!s_mq_preclose(B33,"",1)</f>
-        <v>7476</v>
+        <v>48920</v>
       </c>
       <c r="D33" s="5">
         <f>[1]!s_dq_preclose(B33,"",1)</f>
-        <v>7348</v>
+        <v>49530</v>
       </c>
       <c r="E33" s="6">
         <f>RTD("wdf.rtq", ,B33, "rt_last","RT_Price")</f>
-        <v>7286</v>
+        <v>49250</v>
       </c>
       <c r="F33" s="7">
         <f>E33/C33-1</f>
-        <v>-2.5414660246120935E-2</v>
+        <v>6.7457072771872628E-3</v>
       </c>
       <c r="G33" s="8">
         <f>E33/D33-1</f>
-        <v>-8.437670114316842E-3</v>
+        <v>-5.6531395114072236E-3</v>
       </c>
       <c r="H33" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H33"/>
-  <sortState ref="A2:H33">
-    <sortCondition descending="1" ref="G2:G33"/>
+  <sortState ref="A2:G33">
+    <sortCondition descending="1" ref="G1"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SuperQuant_FrameWork/SuperQuant_Monitor/Futures_Monitor.xlsx
+++ b/SuperQuant_FrameWork/SuperQuant_Monitor/Futures_Monitor.xlsx
@@ -443,7 +443,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>596.80000000000007</v>
+        <v>600.20000000000005</v>
         <stp/>
         <stp>ZC909</stp>
         <stp>rt_last</stp>
@@ -451,7 +451,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>5514</v>
+        <v>5516</v>
         <stp/>
         <stp>Y1909</stp>
         <stp>rt_last</stp>
@@ -459,7 +459,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>6825</v>
+        <v>6805</v>
         <stp/>
         <stp>V1909</stp>
         <stp>rt_last</stp>
@@ -467,7 +467,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>6058</v>
+        <v>6110</v>
         <stp/>
         <stp>TA909</stp>
         <stp>rt_last</stp>
@@ -475,7 +475,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>2226</v>
+        <v>2222</v>
         <stp/>
         <stp>RM909</stp>
         <stp>rt_last</stp>
@@ -483,7 +483,7 @@
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>5854</v>
+        <v>5914</v>
         <stp/>
         <stp>SF909</stp>
         <stp>rt_last</stp>
@@ -491,7 +491,7 @@
         <tr r="E25" s="1"/>
       </tp>
       <tp>
-        <v>7236</v>
+        <v>7268</v>
         <stp/>
         <stp>SM909</stp>
         <stp>rt_last</stp>
@@ -499,7 +499,7 @@
         <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>5360</v>
+        <v>5344</v>
         <stp/>
         <stp>SR909</stp>
         <stp>rt_last</stp>
@@ -507,7 +507,7 @@
         <tr r="E14" s="1"/>
       </tp>
       <tp>
-        <v>4616</v>
+        <v>4614</v>
         <stp/>
         <stp>P1909</stp>
         <stp>rt_last</stp>
@@ -515,7 +515,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>6996</v>
+        <v>7000</v>
         <stp/>
         <stp>OI909</stp>
         <stp>rt_last</stp>
@@ -523,7 +523,7 @@
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>8295</v>
+        <v>8300</v>
         <stp/>
         <stp>L1909</stp>
         <stp>rt_last</stp>
@@ -531,7 +531,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>2457</v>
+        <v>2460</v>
         <stp/>
         <stp>MA909</stp>
         <stp>rt_last</stp>
@@ -547,7 +547,7 @@
         <tr r="E29" s="1"/>
       </tp>
       <tp>
-        <v>2033.5</v>
+        <v>2046.5</v>
         <stp/>
         <stp>J1909</stp>
         <stp>rt_last</stp>
@@ -555,7 +555,7 @@
         <tr r="E26" s="1"/>
       </tp>
       <tp>
-        <v>627</v>
+        <v>634</v>
         <stp/>
         <stp>I1909</stp>
         <stp>rt_last</stp>
@@ -563,7 +563,7 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>1351</v>
+        <v>1362</v>
         <stp/>
         <stp>FG909</stp>
         <stp>rt_last</stp>
@@ -579,7 +579,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>21655</v>
+        <v>21670</v>
         <stp/>
         <stp>ZN1906</stp>
         <stp>rt_last</stp>
@@ -587,7 +587,7 @@
         <tr r="E27" s="1"/>
       </tp>
       <tp>
-        <v>11480</v>
+        <v>11565</v>
         <stp/>
         <stp>RU1909</stp>
         <stp>rt_last</stp>
@@ -595,7 +595,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>5396</v>
+        <v>5360</v>
         <stp/>
         <stp>SP1909</stp>
         <stp>rt_last</stp>
@@ -603,7 +603,7 @@
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>3773</v>
+        <v>3777</v>
         <stp/>
         <stp>RB1910</stp>
         <stp>rt_last</stp>
@@ -611,7 +611,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>8643</v>
+        <v>8670</v>
         <stp/>
         <stp>PP1909</stp>
         <stp>rt_last</stp>
@@ -619,7 +619,7 @@
         <tr r="E13" s="1"/>
       </tp>
       <tp>
-        <v>16575</v>
+        <v>16500</v>
         <stp/>
         <stp>PB1906</stp>
         <stp>rt_last</stp>
@@ -627,7 +627,7 @@
         <tr r="E30" s="1"/>
       </tp>
       <tp>
-        <v>1330.5</v>
+        <v>1341.5</v>
         <stp/>
         <stp>JM1909</stp>
         <stp>rt_last</stp>
@@ -635,7 +635,7 @@
         <tr r="E31" s="1"/>
       </tp>
       <tp>
-        <v>3708</v>
+        <v>3715</v>
         <stp/>
         <stp>HC1910</stp>
         <stp>rt_last</stp>
@@ -643,7 +643,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>98550</v>
+        <v>98740</v>
         <stp/>
         <stp>Ni1906</stp>
         <stp>rt_last</stp>
@@ -651,7 +651,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>3540</v>
+        <v>3556</v>
         <stp/>
         <stp>BU1909</stp>
         <stp>rt_last</stp>
@@ -659,7 +659,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>49250</v>
+        <v>49200</v>
         <stp/>
         <stp>CU1906</stp>
         <stp>rt_last</stp>
@@ -667,7 +667,7 @@
         <tr r="E33" s="1"/>
       </tp>
       <tp>
-        <v>2385</v>
+        <v>2384</v>
         <stp/>
         <stp>CS1909</stp>
         <stp>rt_last</stp>
@@ -675,7 +675,7 @@
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>14190</v>
+        <v>14185</v>
         <stp/>
         <stp>AL1906</stp>
         <stp>rt_last</stp>
@@ -683,7 +683,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>2898</v>
+        <v>2906</v>
         <stp/>
         <stp>FU1909</stp>
         <stp>rt_last</stp>
@@ -691,7 +691,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>4846</v>
+        <v>4852</v>
         <stp/>
         <stp>EG1909</stp>
         <stp>rt_last</stp>
@@ -1145,100 +1145,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>2.0172910662824117E-2</c:v>
+                  <c:v>4.5197740112994378E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8495575221239076E-3</c:v>
+                  <c:v>1.1164274322169154E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3800738007379074E-3</c:v>
+                  <c:v>1.2210012210012167E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3632958801497246E-3</c:v>
+                  <c:v>1.060164325470403E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4620877252635278E-2</c:v>
+                  <c:v>5.6970509383380552E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9685295713509667E-3</c:v>
+                  <c:v>1.8878101402373115E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8953574060427449E-3</c:v>
+                  <c:v>-2.93040293040292E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.6580086580085869E-3</c:v>
+                  <c:v>8.5836909871244149E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.275077559462213E-3</c:v>
+                  <c:v>1.2381345439538283E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7183958151704211E-4</c:v>
+                  <c:v>7.404181184669012E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7064083457526458E-3</c:v>
+                  <c:v>8.1421169504070079E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6.9372181755111839E-4</c:v>
+                  <c:v>3.1239153071849213E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7453183520599342E-3</c:v>
+                  <c:v>-2.9850746268657025E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-6.8527663005140127E-3</c:v>
+                  <c:v>1.927955352612809E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>-4.3327556325822858E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.2088987062165444E-3</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.2595281306719883E-4</c:v>
+                  <c:v>3.6271309394275697E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.8125E-3</c:v>
+                  <c:v>-3.5236081747713754E-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.2016806722688926E-3</c:v>
+                  <c:v>6.0277275467157665E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7556179775280789E-2</c:v>
+                  <c:v>2.760524499654915E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-6.8624759813340486E-3</c:v>
+                  <c:v>4.4223327805417156E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.7878787878788955E-3</c:v>
+                  <c:v>-4.1928721174000483E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9739776951673846E-3</c:v>
+                  <c:v>-6.6716085989622087E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-4.7602856171370389E-3</c:v>
+                  <c:v>1.0249402118209794E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.0487804878048852E-3</c:v>
+                  <c:v>6.3929186132283267E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9316081330872414E-4</c:v>
+                  <c:v>6.9268067420913404E-4</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1520526391077865E-4</c:v>
+                  <c:v>5.7175528873631976E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.5454545454546302E-3</c:v>
+                  <c:v>-4.5248868778280382E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.4893378226711356E-3</c:v>
+                  <c:v>8.2675685832394041E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.7937219730941312E-3</c:v>
+                  <c:v>-1.7969451931716396E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-5.6531395114072236E-3</c:v>
+                  <c:v>-1.0152284263958977E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="414926672"/>
-        <c:axId val="414927232"/>
+        <c:axId val="414817632"/>
+        <c:axId val="414817072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414926672"/>
+        <c:axId val="414817632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414927232"/>
+        <c:crossAx val="414817072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1309,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414927232"/>
+        <c:axId val="414817072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414926672"/>
+        <c:crossAx val="414817632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,100 +1792,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>4.9822064056939563E-2</c:v>
+                  <c:v>5.4567022538552834E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.3613231552162919E-2</c:v>
+                  <c:v>7.5487701441899979E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.0535062829347712E-3</c:v>
+                  <c:v>-2.8374543980542732E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7946943483275586E-2</c:v>
+                  <c:v>8.9100346020761334E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0742659758203894E-2</c:v>
+                  <c:v>3.6614853195164221E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3537927041111839E-2</c:v>
+                  <c:v>7.5564562825709336E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.2780748663101553E-2</c:v>
+                  <c:v>3.972498090145149E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9522046449007124E-2</c:v>
+                  <c:v>2.8273308650285989E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.7237882782397129E-2</c:v>
+                  <c:v>-1.6021091056580783E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-7.349762213575417E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.6475600309837439E-2</c:v>
+                  <c:v>5.4996127033307474E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.0322580645161255E-2</c:v>
+                  <c:v>4.3572460279248881E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2017039825638998E-2</c:v>
+                  <c:v>5.8846839706756526E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.7251695253290733E-2</c:v>
+                  <c:v>-1.5357000398883103E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.7888550282977338E-3</c:v>
+                  <c:v>4.3535045711797782E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>2.4846724749919336E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.9739884393064084E-3</c:v>
+                  <c:v>-3.6127167630057855E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0875408645114399E-2</c:v>
+                  <c:v>3.0512168543407103E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1585365853658436E-2</c:v>
+                  <c:v>1.2195121951219523E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.4630489111031837E-2</c:v>
+                  <c:v>3.7486611924312685E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-3.2102728731942198E-2</c:v>
+                  <c:v>-2.7822364901016639E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.6055603822762849E-2</c:v>
+                  <c:v>3.5621198957428213E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2744503411675554E-2</c:v>
+                  <c:v>1.5921152388172821E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.4688346883469157E-3</c:v>
+                  <c:v>1.6937669376693165E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5501285347043785E-2</c:v>
+                  <c:v>5.2185089974293053E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.3905866607182644E-2</c:v>
+                  <c:v>-3.3236671871514578E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0106843777071939E-2</c:v>
+                  <c:v>1.0684377707190329E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.5163297045100999E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-9.5608007170600029E-3</c:v>
+                  <c:v>-1.4042426053181956E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.4840667678299795E-3</c:v>
+                  <c:v>1.7830045523520521E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1100917431192689E-2</c:v>
+                  <c:v>1.9266055045871644E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.7457072771872628E-3</c:v>
+                  <c:v>5.7236304170074082E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,11 +1901,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="414929472"/>
-        <c:axId val="414930032"/>
+        <c:axId val="414802512"/>
+        <c:axId val="414803072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414929472"/>
+        <c:axId val="414802512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414930032"/>
+        <c:crossAx val="414803072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1955,7 +1955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414930032"/>
+        <c:axId val="414803072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414929472"/>
+        <c:crossAx val="414802512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G1" s="4">
         <f ca="1">NOW()</f>
-        <v>43577.718162962963</v>
+        <v>43578.575083564814</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -3567,19 +3567,19 @@
       </c>
       <c r="D2" s="5">
         <f>[1]!s_dq_preclose(B2,"",1)</f>
-        <v>3470</v>
+        <v>3540</v>
       </c>
       <c r="E2" s="6">
         <f>RTD("wdf.rtq", ,B2, "rt_last","RT_Price")</f>
-        <v>3540</v>
+        <v>3556</v>
       </c>
       <c r="F2" s="7">
-        <f>E2/C2-1</f>
-        <v>4.9822064056939563E-2</v>
+        <f t="shared" ref="F2:F33" si="0">E2/C2-1</f>
+        <v>5.4567022538552834E-2</v>
       </c>
       <c r="G2" s="8">
-        <f>E2/D2-1</f>
-        <v>2.0172910662824117E-2</v>
+        <f t="shared" ref="G2:G33" si="1">E2/D2-1</f>
+        <v>4.5197740112994378E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3596,19 +3596,19 @@
       </c>
       <c r="D3" s="5">
         <f>[1]!s_dq_preclose(B3,"",1)</f>
-        <v>621.5</v>
+        <v>627</v>
       </c>
       <c r="E3" s="6">
         <f>RTD("wdf.rtq", ,B3, "rt_last","RT_Price")</f>
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F3" s="7">
-        <f>E3/C3-1</f>
-        <v>6.3613231552162919E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5487701441899979E-2</v>
       </c>
       <c r="G3" s="8">
-        <f>E3/D3-1</f>
-        <v>8.8495575221239076E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.1164274322169154E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3624,19 +3624,19 @@
       </c>
       <c r="D4" s="5">
         <f>[1]!s_dq_preclose(B4,"",1)</f>
-        <v>2439</v>
+        <v>2457</v>
       </c>
       <c r="E4" s="6">
         <f>RTD("wdf.rtq", ,B4, "rt_last","RT_Price")</f>
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="F4" s="7">
-        <f>E4/C4-1</f>
-        <v>-4.0535062829347712E-3</v>
+        <f t="shared" si="0"/>
+        <v>-2.8374543980542732E-3</v>
       </c>
       <c r="G4" s="8">
-        <f>E4/D4-1</f>
-        <v>7.3800738007379074E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2210012210012167E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3653,19 +3653,19 @@
       </c>
       <c r="D5" s="5">
         <f>[1]!s_dq_preclose(B5,"",1)</f>
-        <v>3738</v>
+        <v>3773</v>
       </c>
       <c r="E5" s="6">
         <f>RTD("wdf.rtq", ,B5, "rt_last","RT_Price")</f>
-        <v>3773</v>
+        <v>3777</v>
       </c>
       <c r="F5" s="7">
-        <f>E5/C5-1</f>
-        <v>8.7946943483275586E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.9100346020761334E-2</v>
       </c>
       <c r="G5" s="8">
-        <f>E5/D5-1</f>
-        <v>9.3632958801497246E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.060164325470403E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3681,19 +3681,19 @@
       </c>
       <c r="D6" s="5">
         <f>[1]!s_dq_preclose(B6,"",1)</f>
-        <v>588.20000000000005</v>
+        <v>596.79999999999995</v>
       </c>
       <c r="E6" s="6">
         <f>RTD("wdf.rtq", ,B6, "rt_last","RT_Price")</f>
-        <v>596.80000000000007</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="F6" s="7">
-        <f>E6/C6-1</f>
-        <v>3.0742659758203894E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.6614853195164221E-2</v>
       </c>
       <c r="G6" s="8">
-        <f>E6/D6-1</f>
-        <v>1.4620877252635278E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.6970509383380552E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1">
@@ -3710,19 +3710,19 @@
       </c>
       <c r="D7" s="5">
         <f>[1]!s_dq_preclose(B7,"",1)</f>
-        <v>3686</v>
+        <v>3708</v>
       </c>
       <c r="E7" s="6">
         <f>RTD("wdf.rtq", ,B7, "rt_last","RT_Price")</f>
-        <v>3708</v>
+        <v>3715</v>
       </c>
       <c r="F7" s="7">
-        <f>E7/C7-1</f>
-        <v>7.3537927041111839E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.5564562825709336E-2</v>
       </c>
       <c r="G7" s="8">
-        <f>E7/D7-1</f>
-        <v>5.9685295713509667E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.8878101402373115E-3</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -3739,19 +3739,19 @@
       </c>
       <c r="D8" s="5">
         <f>[1]!s_dq_preclose(B8,"",1)</f>
-        <v>6785</v>
+        <v>6825</v>
       </c>
       <c r="E8" s="6">
         <f>RTD("wdf.rtq", ,B8, "rt_last","RT_Price")</f>
-        <v>6825</v>
+        <v>6805</v>
       </c>
       <c r="F8" s="7">
-        <f>E8/C8-1</f>
-        <v>4.2780748663101553E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.972498090145149E-2</v>
       </c>
       <c r="G8" s="8">
-        <f>E8/D8-1</f>
-        <v>5.8953574060427449E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.93040293040292E-3</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3768,19 +3768,19 @@
       </c>
       <c r="D9" s="5">
         <f>[1]!s_dq_preclose(B9,"",1)</f>
-        <v>6006</v>
+        <v>6058</v>
       </c>
       <c r="E9" s="6">
         <f>RTD("wdf.rtq", ,B9, "rt_last","RT_Price")</f>
-        <v>6058</v>
+        <v>6110</v>
       </c>
       <c r="F9" s="7">
-        <f>E9/C9-1</f>
-        <v>1.9522046449007124E-2</v>
+        <f t="shared" si="0"/>
+        <v>2.8273308650285989E-2</v>
       </c>
       <c r="G9" s="8">
-        <f>E9/D9-1</f>
-        <v>8.6580086580085869E-3</v>
+        <f t="shared" si="1"/>
+        <v>8.5836909871244149E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
@@ -3796,19 +3796,19 @@
       </c>
       <c r="D10" s="5">
         <f>[1]!s_dq_preclose(B10,"",1)</f>
-        <v>4835</v>
+        <v>4846</v>
       </c>
       <c r="E10" s="6">
         <f>RTD("wdf.rtq", ,B10, "rt_last","RT_Price")</f>
-        <v>4846</v>
+        <v>4852</v>
       </c>
       <c r="F10" s="7">
-        <f>E10/C10-1</f>
-        <v>-1.7237882782397129E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.6021091056580783E-2</v>
       </c>
       <c r="G10" s="8">
-        <f>E10/D10-1</f>
-        <v>2.275077559462213E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2381345439538283E-3</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3825,19 +3825,19 @@
       </c>
       <c r="D11" s="5">
         <f>[1]!s_dq_preclose(B11,"",1)</f>
-        <v>11470</v>
+        <v>11480</v>
       </c>
       <c r="E11" s="6">
         <f>RTD("wdf.rtq", ,B11, "rt_last","RT_Price")</f>
-        <v>11480</v>
+        <v>11565</v>
       </c>
       <c r="F11" s="7">
-        <f>E11/C11-1</f>
-        <v>-7.349762213575417E-3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
-        <f>E11/D11-1</f>
-        <v>8.7183958151704211E-4</v>
+        <f t="shared" si="1"/>
+        <v>7.404181184669012E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="D12" s="5">
         <f>[1]!s_dq_preclose(B12,"",1)</f>
-        <v>1342</v>
+        <v>1351</v>
       </c>
       <c r="E12" s="16">
         <f>RTD("wdf.rtq", ,B12, "rt_last","RT_Price")</f>
-        <v>1351</v>
+        <v>1362</v>
       </c>
       <c r="F12" s="18">
-        <f>E12/C12-1</f>
-        <v>4.6475600309837439E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.4996127033307474E-2</v>
       </c>
       <c r="G12" s="8">
-        <f>E12/D12-1</f>
-        <v>6.7064083457526458E-3</v>
+        <f t="shared" si="1"/>
+        <v>8.1421169504070079E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3882,19 +3882,19 @@
       </c>
       <c r="D13" s="5">
         <f>[1]!s_dq_preclose(B13,"",1)</f>
-        <v>8649</v>
+        <v>8643</v>
       </c>
       <c r="E13" s="6">
         <f>RTD("wdf.rtq", ,B13, "rt_last","RT_Price")</f>
-        <v>8643</v>
+        <v>8670</v>
       </c>
       <c r="F13" s="7">
-        <f>E13/C13-1</f>
-        <v>4.0322580645161255E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3572460279248881E-2</v>
       </c>
       <c r="G13" s="8">
-        <f>E13/D13-1</f>
-        <v>-6.9372181755111839E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.1239153071849213E-3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3910,19 +3910,19 @@
       </c>
       <c r="D14" s="5">
         <f>[1]!s_dq_preclose(B14,"",1)</f>
-        <v>5340</v>
+        <v>5360</v>
       </c>
       <c r="E14" s="6">
         <f>RTD("wdf.rtq", ,B14, "rt_last","RT_Price")</f>
-        <v>5360</v>
+        <v>5344</v>
       </c>
       <c r="F14" s="7">
-        <f>E14/C14-1</f>
-        <v>6.2017039825638998E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.8846839706756526E-2</v>
       </c>
       <c r="G14" s="8">
-        <f>E14/D14-1</f>
-        <v>3.7453183520599342E-3</v>
+        <f t="shared" si="1"/>
+        <v>-2.9850746268657025E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3938,19 +3938,19 @@
       </c>
       <c r="D15" s="5">
         <f>[1]!s_dq_preclose(B15,"",1)</f>
-        <v>99230</v>
+        <v>98550</v>
       </c>
       <c r="E15" s="6">
         <f>RTD("wdf.rtq", ,B15, "rt_last","RT_Price")</f>
-        <v>98550</v>
+        <v>98740</v>
       </c>
       <c r="F15" s="7">
-        <f>E15/C15-1</f>
-        <v>-1.7251695253290733E-2</v>
+        <f t="shared" si="0"/>
+        <v>-1.5357000398883103E-2</v>
       </c>
       <c r="G15" s="8">
-        <f>E15/D15-1</f>
-        <v>-6.8527663005140127E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.927955352612809E-3</v>
       </c>
       <c r="H15" s="14"/>
     </row>
@@ -3971,15 +3971,15 @@
       </c>
       <c r="E16" s="6">
         <f>RTD("wdf.rtq", ,B16, "rt_last","RT_Price")</f>
-        <v>4616</v>
+        <v>4614</v>
       </c>
       <c r="F16" s="7">
-        <f>E16/C16-1</f>
-        <v>4.7888550282977338E-3</v>
+        <f t="shared" si="0"/>
+        <v>4.3535045711797782E-3</v>
       </c>
       <c r="G16" s="8">
-        <f>E16/D16-1</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>-4.3327556325822858E-4</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3995,19 +3995,19 @@
       </c>
       <c r="D17" s="5">
         <f>[1]!s_dq_preclose(B17,"",1)</f>
-        <v>15845</v>
+        <v>15880</v>
       </c>
       <c r="E17" s="6">
         <f>RTD("wdf.rtq", ,B17, "rt_last","RT_Price")</f>
         <v>15880</v>
       </c>
       <c r="F17" s="7">
-        <f>E17/C17-1</f>
+        <f t="shared" si="0"/>
         <v>2.4846724749919336E-2</v>
       </c>
       <c r="G17" s="8">
-        <f>E17/D17-1</f>
-        <v>2.2088987062165444E-3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4023,19 +4023,19 @@
       </c>
       <c r="D18" s="5">
         <f>[1]!s_dq_preclose(B18,"",1)</f>
-        <v>5510</v>
+        <v>5514</v>
       </c>
       <c r="E18" s="6">
         <f>RTD("wdf.rtq", ,B18, "rt_last","RT_Price")</f>
-        <v>5514</v>
+        <v>5516</v>
       </c>
       <c r="F18" s="7">
-        <f>E18/C18-1</f>
-        <v>-3.9739884393064084E-3</v>
+        <f t="shared" si="0"/>
+        <v>-3.6127167630057855E-3</v>
       </c>
       <c r="G18" s="8">
-        <f>E18/D18-1</f>
-        <v>7.2595281306719883E-4</v>
+        <f t="shared" si="1"/>
+        <v>3.6271309394275697E-4</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4051,19 +4051,19 @@
       </c>
       <c r="D19" s="5">
         <f>[1]!s_dq_preclose(B19,"",1)</f>
-        <v>14080</v>
+        <v>14190</v>
       </c>
       <c r="E19" s="6">
         <f>RTD("wdf.rtq", ,B19, "rt_last","RT_Price")</f>
-        <v>14190</v>
+        <v>14185</v>
       </c>
       <c r="F19" s="7">
-        <f>E19/C19-1</f>
-        <v>3.0875408645114399E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0512168543407103E-2</v>
       </c>
       <c r="G19" s="8">
-        <f>E19/D19-1</f>
-        <v>7.8125E-3</v>
+        <f t="shared" si="1"/>
+        <v>-3.5236081747713754E-4</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4079,19 +4079,19 @@
       </c>
       <c r="D20" s="5">
         <f>[1]!s_dq_preclose(B20,"",1)</f>
-        <v>8330</v>
+        <v>8295</v>
       </c>
       <c r="E20" s="6">
         <f>RTD("wdf.rtq", ,B20, "rt_last","RT_Price")</f>
-        <v>8295</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="7">
-        <f>E20/C20-1</f>
-        <v>1.1585365853658436E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.2195121951219523E-2</v>
       </c>
       <c r="G20" s="8">
-        <f>E20/D20-1</f>
-        <v>-4.2016806722688926E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.0277275467157665E-4</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4107,19 +4107,19 @@
       </c>
       <c r="D21" s="5">
         <f>[1]!s_dq_preclose(B21,"",1)</f>
-        <v>2848</v>
+        <v>2898</v>
       </c>
       <c r="E21" s="6">
         <f>RTD("wdf.rtq", ,B21, "rt_last","RT_Price")</f>
-        <v>2898</v>
+        <v>2906</v>
       </c>
       <c r="F21" s="7">
-        <f>E21/C21-1</f>
-        <v>3.4630489111031837E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.7486611924312685E-2</v>
       </c>
       <c r="G21" s="8">
-        <f>E21/D21-1</f>
-        <v>1.7556179775280789E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.760524499654915E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4135,19 +4135,19 @@
       </c>
       <c r="D22" s="5">
         <f>[1]!s_dq_preclose(B22,"",1)</f>
-        <v>7286</v>
+        <v>7236</v>
       </c>
       <c r="E22" s="6">
         <f>RTD("wdf.rtq", ,B22, "rt_last","RT_Price")</f>
-        <v>7236</v>
+        <v>7268</v>
       </c>
       <c r="F22" s="7">
-        <f>E22/C22-1</f>
-        <v>-3.2102728731942198E-2</v>
+        <f t="shared" si="0"/>
+        <v>-2.7822364901016639E-2</v>
       </c>
       <c r="G22" s="8">
-        <f>E22/D22-1</f>
-        <v>-6.8624759813340486E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.4223327805417156E-3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4163,19 +4163,19 @@
       </c>
       <c r="D23" s="5">
         <f>[1]!s_dq_preclose(B23,"",1)</f>
-        <v>2376</v>
+        <v>2385</v>
       </c>
       <c r="E23" s="6">
         <f>RTD("wdf.rtq", ,B23, "rt_last","RT_Price")</f>
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="F23" s="7">
-        <f>E23/C23-1</f>
-        <v>3.6055603822762849E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5621198957428213E-2</v>
       </c>
       <c r="G23" s="8">
-        <f>E23/D23-1</f>
-        <v>3.7878787878788955E-3</v>
+        <f t="shared" si="1"/>
+        <v>-4.1928721174000483E-4</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -4192,19 +4192,19 @@
       </c>
       <c r="D24" s="5">
         <f>[1]!s_dq_preclose(B24,"",1)</f>
-        <v>5380</v>
+        <v>5396</v>
       </c>
       <c r="E24" s="6">
         <f>RTD("wdf.rtq", ,B24, "rt_last","RT_Price")</f>
-        <v>5396</v>
+        <v>5360</v>
       </c>
       <c r="F24" s="7">
-        <f>E24/C24-1</f>
-        <v>2.2744503411675554E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.5921152388172821E-2</v>
       </c>
       <c r="G24" s="8">
-        <f>E24/D24-1</f>
-        <v>2.9739776951673846E-3</v>
+        <f t="shared" si="1"/>
+        <v>-6.6716085989622087E-3</v>
       </c>
       <c r="H24" s="10"/>
     </row>
@@ -4221,19 +4221,19 @@
       </c>
       <c r="D25" s="5">
         <f>[1]!s_dq_preclose(B25,"",1)</f>
-        <v>5882</v>
+        <v>5854</v>
       </c>
       <c r="E25" s="6">
         <f>RTD("wdf.rtq", ,B25, "rt_last","RT_Price")</f>
-        <v>5854</v>
+        <v>5914</v>
       </c>
       <c r="F25" s="7">
-        <f>E25/C25-1</f>
-        <v>-8.4688346883469157E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.6937669376693165E-3</v>
       </c>
       <c r="G25" s="8">
-        <f>E25/D25-1</f>
-        <v>-4.7602856171370389E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.0249402118209794E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4250,19 +4250,19 @@
       </c>
       <c r="D26" s="5">
         <f>[1]!s_dq_preclose(B26,"",1)</f>
-        <v>2050</v>
+        <v>2033.5</v>
       </c>
       <c r="E26" s="6">
         <f>RTD("wdf.rtq", ,B26, "rt_last","RT_Price")</f>
-        <v>2033.5</v>
+        <v>2046.5</v>
       </c>
       <c r="F26" s="7">
-        <f>E26/C26-1</f>
-        <v>4.5501285347043785E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.2185089974293053E-2</v>
       </c>
       <c r="G26" s="8">
-        <f>E26/D26-1</f>
-        <v>-8.0487804878048852E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.3929186132283267E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4278,19 +4278,19 @@
       </c>
       <c r="D27" s="5">
         <f>[1]!s_dq_preclose(B27,"",1)</f>
-        <v>21640</v>
+        <v>21655</v>
       </c>
       <c r="E27" s="16">
         <f>RTD("wdf.rtq", ,B27, "rt_last","RT_Price")</f>
-        <v>21655</v>
+        <v>21670</v>
       </c>
       <c r="F27" s="17">
-        <f>E27/C27-1</f>
-        <v>-3.3905866607182644E-2</v>
+        <f t="shared" si="0"/>
+        <v>-3.3236671871514578E-2</v>
       </c>
       <c r="G27" s="8">
-        <f>E27/D27-1</f>
-        <v>6.9316081330872414E-4</v>
+        <f t="shared" si="1"/>
+        <v>6.9268067420913404E-4</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4306,19 +4306,19 @@
       </c>
       <c r="D28" s="5">
         <f>[1]!s_dq_preclose(B28,"",1)</f>
-        <v>6991</v>
+        <v>6996</v>
       </c>
       <c r="E28" s="6">
         <f>RTD("wdf.rtq", ,B28, "rt_last","RT_Price")</f>
-        <v>6996</v>
+        <v>7000</v>
       </c>
       <c r="F28" s="7">
-        <f>E28/C28-1</f>
-        <v>1.0106843777071939E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.0684377707190329E-2</v>
       </c>
       <c r="G28" s="8">
-        <f>E28/D28-1</f>
-        <v>7.1520526391077865E-4</v>
+        <f t="shared" si="1"/>
+        <v>5.7175528873631976E-4</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4341,11 +4341,11 @@
         <v>2611</v>
       </c>
       <c r="F29" s="7">
-        <f>E29/C29-1</f>
+        <f t="shared" si="0"/>
         <v>1.5163297045100999E-2</v>
       </c>
       <c r="G29" s="8">
-        <f>E29/D29-1</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -4362,19 +4362,19 @@
       </c>
       <c r="D30" s="5">
         <f>[1]!s_dq_preclose(B30,"",1)</f>
-        <v>16500</v>
+        <v>16575</v>
       </c>
       <c r="E30" s="6">
         <f>RTD("wdf.rtq", ,B30, "rt_last","RT_Price")</f>
-        <v>16575</v>
+        <v>16500</v>
       </c>
       <c r="F30" s="7">
-        <f>E30/C30-1</f>
-        <v>-9.5608007170600029E-3</v>
+        <f t="shared" si="0"/>
+        <v>-1.4042426053181956E-2</v>
       </c>
       <c r="G30" s="8">
-        <f>E30/D30-1</f>
-        <v>4.5454545454546302E-3</v>
+        <f t="shared" si="1"/>
+        <v>-4.5248868778280382E-3</v>
       </c>
       <c r="H30" s="9"/>
     </row>
@@ -4392,19 +4392,19 @@
       </c>
       <c r="D31" s="5">
         <f>[1]!s_dq_preclose(B31,"",1)</f>
-        <v>1336.5</v>
+        <v>1330.5</v>
       </c>
       <c r="E31" s="6">
         <f>RTD("wdf.rtq", ,B31, "rt_last","RT_Price")</f>
-        <v>1330.5</v>
+        <v>1341.5</v>
       </c>
       <c r="F31" s="7">
-        <f>E31/C31-1</f>
-        <v>9.4840667678299795E-3</v>
+        <f t="shared" si="0"/>
+        <v>1.7830045523520521E-2</v>
       </c>
       <c r="G31" s="8">
-        <f>E31/D31-1</f>
-        <v>-4.4893378226711356E-3</v>
+        <f t="shared" si="1"/>
+        <v>8.2675685832394041E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4420,19 +4420,19 @@
       </c>
       <c r="D32" s="5">
         <f>[1]!s_dq_preclose(B32,"",1)</f>
-        <v>2230</v>
+        <v>2226</v>
       </c>
       <c r="E32" s="6">
         <f>RTD("wdf.rtq", ,B32, "rt_last","RT_Price")</f>
-        <v>2226</v>
+        <v>2222</v>
       </c>
       <c r="F32" s="7">
-        <f>E32/C32-1</f>
-        <v>2.1100917431192689E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.9266055045871644E-2</v>
       </c>
       <c r="G32" s="8">
-        <f>E32/D32-1</f>
-        <v>-1.7937219730941312E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.7969451931716396E-3</v>
       </c>
       <c r="H32" s="11"/>
     </row>
@@ -4449,19 +4449,19 @@
       </c>
       <c r="D33" s="5">
         <f>[1]!s_dq_preclose(B33,"",1)</f>
-        <v>49530</v>
+        <v>49250</v>
       </c>
       <c r="E33" s="6">
         <f>RTD("wdf.rtq", ,B33, "rt_last","RT_Price")</f>
-        <v>49250</v>
+        <v>49200</v>
       </c>
       <c r="F33" s="7">
-        <f>E33/C33-1</f>
-        <v>6.7457072771872628E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.7236304170074082E-3</v>
       </c>
       <c r="G33" s="8">
-        <f>E33/D33-1</f>
-        <v>-5.6531395114072236E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.0152284263958977E-3</v>
       </c>
       <c r="H33" s="13"/>
     </row>

--- a/SuperQuant_FrameWork/SuperQuant_Monitor/Futures_Monitor.xlsx
+++ b/SuperQuant_FrameWork/SuperQuant_Monitor/Futures_Monitor.xlsx
@@ -443,7 +443,7 @@
   <volType type="realTimeData">
     <main first="wdf.rtq">
       <tp>
-        <v>600.20000000000005</v>
+        <v>604</v>
         <stp/>
         <stp>ZC909</stp>
         <stp>rt_last</stp>
@@ -451,7 +451,7 @@
         <tr r="E6" s="1"/>
       </tp>
       <tp>
-        <v>5516</v>
+        <v>5458</v>
         <stp/>
         <stp>Y1909</stp>
         <stp>rt_last</stp>
@@ -459,7 +459,7 @@
         <tr r="E18" s="1"/>
       </tp>
       <tp>
-        <v>6805</v>
+        <v>6945</v>
         <stp/>
         <stp>V1909</stp>
         <stp>rt_last</stp>
@@ -467,7 +467,7 @@
         <tr r="E8" s="1"/>
       </tp>
       <tp>
-        <v>6110</v>
+        <v>6070</v>
         <stp/>
         <stp>TA909</stp>
         <stp>rt_last</stp>
@@ -475,7 +475,7 @@
         <tr r="E9" s="1"/>
       </tp>
       <tp>
-        <v>2222</v>
+        <v>2217</v>
         <stp/>
         <stp>RM909</stp>
         <stp>rt_last</stp>
@@ -483,7 +483,7 @@
         <tr r="E32" s="1"/>
       </tp>
       <tp>
-        <v>5914</v>
+        <v>5900</v>
         <stp/>
         <stp>SF909</stp>
         <stp>rt_last</stp>
@@ -491,7 +491,7 @@
         <tr r="E25" s="1"/>
       </tp>
       <tp>
-        <v>7268</v>
+        <v>7182</v>
         <stp/>
         <stp>SM909</stp>
         <stp>rt_last</stp>
@@ -499,7 +499,7 @@
         <tr r="E22" s="1"/>
       </tp>
       <tp>
-        <v>5344</v>
+        <v>5327</v>
         <stp/>
         <stp>SR909</stp>
         <stp>rt_last</stp>
@@ -507,7 +507,7 @@
         <tr r="E14" s="1"/>
       </tp>
       <tp>
-        <v>4614</v>
+        <v>4580</v>
         <stp/>
         <stp>P1909</stp>
         <stp>rt_last</stp>
@@ -515,7 +515,7 @@
         <tr r="E16" s="1"/>
       </tp>
       <tp>
-        <v>7000</v>
+        <v>6846</v>
         <stp/>
         <stp>OI909</stp>
         <stp>rt_last</stp>
@@ -523,7 +523,7 @@
         <tr r="E28" s="1"/>
       </tp>
       <tp>
-        <v>8300</v>
+        <v>8290</v>
         <stp/>
         <stp>L1909</stp>
         <stp>rt_last</stp>
@@ -531,7 +531,7 @@
         <tr r="E20" s="1"/>
       </tp>
       <tp>
-        <v>2460</v>
+        <v>2453</v>
         <stp/>
         <stp>MA909</stp>
         <stp>rt_last</stp>
@@ -539,7 +539,7 @@
         <tr r="E4" s="1"/>
       </tp>
       <tp>
-        <v>2611</v>
+        <v>2605</v>
         <stp/>
         <stp>M1909</stp>
         <stp>rt_last</stp>
@@ -547,7 +547,7 @@
         <tr r="E29" s="1"/>
       </tp>
       <tp>
-        <v>2046.5</v>
+        <v>2042.5</v>
         <stp/>
         <stp>J1909</stp>
         <stp>rt_last</stp>
@@ -555,7 +555,7 @@
         <tr r="E26" s="1"/>
       </tp>
       <tp>
-        <v>634</v>
+        <v>617.5</v>
         <stp/>
         <stp>I1909</stp>
         <stp>rt_last</stp>
@@ -563,7 +563,7 @@
         <tr r="E3" s="1"/>
       </tp>
       <tp>
-        <v>1362</v>
+        <v>1355</v>
         <stp/>
         <stp>FG909</stp>
         <stp>rt_last</stp>
@@ -571,7 +571,7 @@
         <tr r="E12" s="1"/>
       </tp>
       <tp>
-        <v>15880</v>
+        <v>15710</v>
         <stp/>
         <stp>CF909</stp>
         <stp>rt_last</stp>
@@ -579,7 +579,7 @@
         <tr r="E17" s="1"/>
       </tp>
       <tp>
-        <v>21670</v>
+        <v>21420</v>
         <stp/>
         <stp>ZN1906</stp>
         <stp>rt_last</stp>
@@ -587,7 +587,7 @@
         <tr r="E27" s="1"/>
       </tp>
       <tp>
-        <v>11565</v>
+        <v>11445</v>
         <stp/>
         <stp>RU1909</stp>
         <stp>rt_last</stp>
@@ -595,7 +595,7 @@
         <tr r="E11" s="1"/>
       </tp>
       <tp>
-        <v>5360</v>
+        <v>5344</v>
         <stp/>
         <stp>SP1909</stp>
         <stp>rt_last</stp>
@@ -603,7 +603,7 @@
         <tr r="E24" s="1"/>
       </tp>
       <tp>
-        <v>3777</v>
+        <v>3736</v>
         <stp/>
         <stp>RB1910</stp>
         <stp>rt_last</stp>
@@ -611,7 +611,7 @@
         <tr r="E5" s="1"/>
       </tp>
       <tp>
-        <v>8670</v>
+        <v>8684</v>
         <stp/>
         <stp>PP1909</stp>
         <stp>rt_last</stp>
@@ -627,7 +627,7 @@
         <tr r="E30" s="1"/>
       </tp>
       <tp>
-        <v>1341.5</v>
+        <v>1346.5</v>
         <stp/>
         <stp>JM1909</stp>
         <stp>rt_last</stp>
@@ -635,7 +635,7 @@
         <tr r="E31" s="1"/>
       </tp>
       <tp>
-        <v>3715</v>
+        <v>3682</v>
         <stp/>
         <stp>HC1910</stp>
         <stp>rt_last</stp>
@@ -643,7 +643,7 @@
         <tr r="E7" s="1"/>
       </tp>
       <tp>
-        <v>98740</v>
+        <v>97930</v>
         <stp/>
         <stp>Ni1906</stp>
         <stp>rt_last</stp>
@@ -651,7 +651,7 @@
         <tr r="E15" s="1"/>
       </tp>
       <tp>
-        <v>3556</v>
+        <v>3572</v>
         <stp/>
         <stp>BU1909</stp>
         <stp>rt_last</stp>
@@ -659,7 +659,7 @@
         <tr r="E2" s="1"/>
       </tp>
       <tp>
-        <v>49200</v>
+        <v>49190</v>
         <stp/>
         <stp>CU1906</stp>
         <stp>rt_last</stp>
@@ -667,7 +667,7 @@
         <tr r="E33" s="1"/>
       </tp>
       <tp>
-        <v>2384</v>
+        <v>2374</v>
         <stp/>
         <stp>CS1909</stp>
         <stp>rt_last</stp>
@@ -675,7 +675,7 @@
         <tr r="E23" s="1"/>
       </tp>
       <tp>
-        <v>14185</v>
+        <v>14215</v>
         <stp/>
         <stp>AL1906</stp>
         <stp>rt_last</stp>
@@ -683,7 +683,7 @@
         <tr r="E19" s="1"/>
       </tp>
       <tp>
-        <v>2906</v>
+        <v>2935</v>
         <stp/>
         <stp>FU1909</stp>
         <stp>rt_last</stp>
@@ -691,7 +691,7 @@
         <tr r="E21" s="1"/>
       </tp>
       <tp>
-        <v>4852</v>
+        <v>4784</v>
         <stp/>
         <stp>EG1909</stp>
         <stp>rt_last</stp>
@@ -1145,100 +1145,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>4.5197740112994378E-3</c:v>
+                  <c:v>2.8074115665357446E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1164274322169154E-2</c:v>
+                  <c:v>-1.8282988871224148E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2210012210012167E-3</c:v>
+                  <c:v>-2.4400162667751468E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.060164325470403E-3</c:v>
+                  <c:v>-5.589566143199387E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6970509383380552E-3</c:v>
+                  <c:v>6.3312229256913266E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8878101402373115E-3</c:v>
+                  <c:v>-2.7085590465871778E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.93040293040292E-3</c:v>
+                  <c:v>1.9075568598679427E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5836909871244149E-3</c:v>
+                  <c:v>-1.9730351857941697E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2381345439538283E-3</c:v>
+                  <c:v>-1.2386457473162693E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.404181184669012E-3</c:v>
+                  <c:v>-8.232235701906454E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1421169504070079E-3</c:v>
+                  <c:v>-2.9433406916851146E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1239153071849213E-3</c:v>
+                  <c:v>-6.9044879171464846E-4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.9850746268657025E-3</c:v>
+                  <c:v>-2.9945723376380018E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.927955352612809E-3</c:v>
+                  <c:v>-5.1808208045509563E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.3327556325822858E-4</c:v>
+                  <c:v>-5.2128583840138631E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>-9.7699338165774252E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.3575581395348708E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1149101163200346E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.4067388688326918E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.244589488148435E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.1560693641618491E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.3585222502099388E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.6271309394275697E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.5236081747713754E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.0277275467157665E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.760524499654915E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4223327805417156E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-4.1928721174000483E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-6.6716085989622087E-3</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0249402118209794E-2</c:v>
+                  <c:v>-2.0297699594046259E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.3929186132283267E-3</c:v>
+                  <c:v>-1.7106549364613866E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.9268067420913404E-4</c:v>
+                  <c:v>-1.1992619926199266E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.7175528873631976E-4</c:v>
+                  <c:v>-1.9478659409911225E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>-2.6799387442573153E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>-4.5248868778280382E-3</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.2675685832394041E-3</c:v>
+                  <c:v>6.7289719626169031E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-1.7969451931716396E-3</c:v>
+                  <c:v>-1.8009905447996521E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.0152284263958977E-3</c:v>
+                  <c:v>6.1025223759147984E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="414817632"/>
-        <c:axId val="414817072"/>
+        <c:axId val="942024112"/>
+        <c:axId val="942026352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414817632"/>
+        <c:axId val="942024112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1301,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414817072"/>
+        <c:crossAx val="942026352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1309,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414817072"/>
+        <c:axId val="942026352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,7 +1359,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414817632"/>
+        <c:crossAx val="942024112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1792,100 +1792,100 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>5.4567022538552834E-2</c:v>
+                  <c:v>5.9311981020166105E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5487701441899979E-2</c:v>
+                  <c:v>4.7497879558948242E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8374543980542732E-3</c:v>
+                  <c:v>-5.6749087961086575E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9100346020761334E-2</c:v>
+                  <c:v>7.7277970011534025E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6614853195164221E-2</c:v>
+                  <c:v>4.3177892918825567E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5564562825709336E-2</c:v>
+                  <c:v>6.6010422698320692E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.972498090145149E-2</c:v>
+                  <c:v>6.1115355233002377E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8273308650285989E-2</c:v>
+                  <c:v>2.1541568495456076E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6021091056580783E-2</c:v>
+                  <c:v>-2.9811397282498486E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-1.037613488975353E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4996127033307474E-2</c:v>
+                  <c:v>4.9573973663826543E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3572460279248881E-2</c:v>
+                  <c:v>4.5257583052479511E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8846839706756526E-2</c:v>
+                  <c:v>5.5478502080443803E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.5357000398883103E-2</c:v>
+                  <c:v>-2.3434383725568386E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3535045711797782E-3</c:v>
+                  <c:v>-3.0474531998259113E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4846724749919336E-2</c:v>
+                  <c:v>1.3875443691513389E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.6127167630057855E-3</c:v>
+                  <c:v>-1.4089595375722519E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0512168543407103E-2</c:v>
+                  <c:v>3.2691609153650658E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2195121951219523E-2</c:v>
+                  <c:v>1.0975609756097571E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7486611924312685E-2</c:v>
+                  <c:v>4.7840057122456203E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.7822364901016639E-2</c:v>
+                  <c:v>-3.9325842696629199E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.5621198957428213E-2</c:v>
+                  <c:v>3.1277150304083401E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.5921152388172821E-2</c:v>
+                  <c:v>1.2888551933282866E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.6937669376693165E-3</c:v>
+                  <c:v>-6.7750677506772661E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.2185089974293053E-2</c:v>
+                  <c:v>5.0128534704370287E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-3.3236671871514578E-2</c:v>
+                  <c:v>-4.4389917465982642E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0684377707190329E-2</c:v>
+                  <c:v>-1.1550678602367914E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.5163297045100999E-2</c:v>
+                  <c:v>1.2830482115085529E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>-1.4042426053181956E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7830045523520521E-2</c:v>
+                  <c:v>2.1623672230652424E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.9266055045871644E-2</c:v>
+                  <c:v>1.6972477064220115E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.7236304170074082E-3</c:v>
+                  <c:v>5.5192150449714372E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,11 +1901,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="414802512"/>
-        <c:axId val="414803072"/>
+        <c:axId val="942028032"/>
+        <c:axId val="942028592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414802512"/>
+        <c:axId val="942028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,7 +1947,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414803072"/>
+        <c:crossAx val="942028592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1955,7 +1955,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414803072"/>
+        <c:axId val="942028592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414802512"/>
+        <c:crossAx val="942028032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,7 +3513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G1" s="4">
         <f ca="1">NOW()</f>
-        <v>43578.575083564814</v>
+        <v>43579.961381712965</v>
       </c>
       <c r="H1" s="4"/>
     </row>
@@ -3567,19 +3567,19 @@
       </c>
       <c r="D2" s="5">
         <f>[1]!s_dq_preclose(B2,"",1)</f>
-        <v>3540</v>
+        <v>3562</v>
       </c>
       <c r="E2" s="6">
         <f>RTD("wdf.rtq", ,B2, "rt_last","RT_Price")</f>
-        <v>3556</v>
+        <v>3572</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:F33" si="0">E2/C2-1</f>
-        <v>5.4567022538552834E-2</v>
+        <v>5.9311981020166105E-2</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" ref="G2:G33" si="1">E2/D2-1</f>
-        <v>4.5197740112994378E-3</v>
+        <v>2.8074115665357446E-3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3596,19 +3596,19 @@
       </c>
       <c r="D3" s="5">
         <f>[1]!s_dq_preclose(B3,"",1)</f>
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E3" s="6">
         <f>RTD("wdf.rtq", ,B3, "rt_last","RT_Price")</f>
-        <v>634</v>
+        <v>617.5</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" si="0"/>
-        <v>7.5487701441899979E-2</v>
+        <v>4.7497879558948242E-2</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" si="1"/>
-        <v>1.1164274322169154E-2</v>
+        <v>-1.8282988871224148E-2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3624,19 +3624,19 @@
       </c>
       <c r="D4" s="5">
         <f>[1]!s_dq_preclose(B4,"",1)</f>
-        <v>2457</v>
+        <v>2459</v>
       </c>
       <c r="E4" s="6">
         <f>RTD("wdf.rtq", ,B4, "rt_last","RT_Price")</f>
-        <v>2460</v>
+        <v>2453</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
-        <v>-2.8374543980542732E-3</v>
+        <v>-5.6749087961086575E-3</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>1.2210012210012167E-3</v>
+        <v>-2.4400162667751468E-3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3653,19 +3653,19 @@
       </c>
       <c r="D5" s="5">
         <f>[1]!s_dq_preclose(B5,"",1)</f>
-        <v>3773</v>
+        <v>3757</v>
       </c>
       <c r="E5" s="6">
         <f>RTD("wdf.rtq", ,B5, "rt_last","RT_Price")</f>
-        <v>3777</v>
+        <v>3736</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
-        <v>8.9100346020761334E-2</v>
+        <v>7.7277970011534025E-2</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>1.060164325470403E-3</v>
+        <v>-5.589566143199387E-3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3681,19 +3681,19 @@
       </c>
       <c r="D6" s="5">
         <f>[1]!s_dq_preclose(B6,"",1)</f>
-        <v>596.79999999999995</v>
+        <v>600.20000000000005</v>
       </c>
       <c r="E6" s="6">
         <f>RTD("wdf.rtq", ,B6, "rt_last","RT_Price")</f>
-        <v>600.20000000000005</v>
+        <v>604</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
-        <v>3.6614853195164221E-2</v>
+        <v>4.3177892918825567E-2</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="1"/>
-        <v>5.6970509383380552E-3</v>
+        <v>6.3312229256913266E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="12" customFormat="1">
@@ -3710,19 +3710,19 @@
       </c>
       <c r="D7" s="5">
         <f>[1]!s_dq_preclose(B7,"",1)</f>
-        <v>3708</v>
+        <v>3692</v>
       </c>
       <c r="E7" s="6">
         <f>RTD("wdf.rtq", ,B7, "rt_last","RT_Price")</f>
-        <v>3715</v>
+        <v>3682</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" si="0"/>
-        <v>7.5564562825709336E-2</v>
+        <v>6.6010422698320692E-2</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" si="1"/>
-        <v>1.8878101402373115E-3</v>
+        <v>-2.7085590465871778E-3</v>
       </c>
       <c r="H7" s="1"/>
     </row>
@@ -3739,19 +3739,19 @@
       </c>
       <c r="D8" s="5">
         <f>[1]!s_dq_preclose(B8,"",1)</f>
-        <v>6825</v>
+        <v>6815</v>
       </c>
       <c r="E8" s="6">
         <f>RTD("wdf.rtq", ,B8, "rt_last","RT_Price")</f>
-        <v>6805</v>
+        <v>6945</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>3.972498090145149E-2</v>
+        <v>6.1115355233002377E-2</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>-2.93040293040292E-3</v>
+        <v>1.9075568598679427E-2</v>
       </c>
       <c r="H8" s="1"/>
     </row>
@@ -3768,19 +3768,19 @@
       </c>
       <c r="D9" s="5">
         <f>[1]!s_dq_preclose(B9,"",1)</f>
-        <v>6058</v>
+        <v>6082</v>
       </c>
       <c r="E9" s="6">
         <f>RTD("wdf.rtq", ,B9, "rt_last","RT_Price")</f>
-        <v>6110</v>
+        <v>6070</v>
       </c>
       <c r="F9" s="7">
         <f t="shared" si="0"/>
-        <v>2.8273308650285989E-2</v>
+        <v>2.1541568495456076E-2</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>8.5836909871244149E-3</v>
+        <v>-1.9730351857941697E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="14" customFormat="1">
@@ -3796,19 +3796,19 @@
       </c>
       <c r="D10" s="5">
         <f>[1]!s_dq_preclose(B10,"",1)</f>
-        <v>4846</v>
+        <v>4844</v>
       </c>
       <c r="E10" s="6">
         <f>RTD("wdf.rtq", ,B10, "rt_last","RT_Price")</f>
-        <v>4852</v>
+        <v>4784</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>-1.6021091056580783E-2</v>
+        <v>-2.9811397282498486E-2</v>
       </c>
       <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>1.2381345439538283E-3</v>
+        <v>-1.2386457473162693E-2</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -3825,19 +3825,19 @@
       </c>
       <c r="D11" s="5">
         <f>[1]!s_dq_preclose(B11,"",1)</f>
-        <v>11480</v>
+        <v>11540</v>
       </c>
       <c r="E11" s="6">
         <f>RTD("wdf.rtq", ,B11, "rt_last","RT_Price")</f>
-        <v>11565</v>
+        <v>11445</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.037613488975353E-2</v>
       </c>
       <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>7.404181184669012E-3</v>
+        <v>-8.232235701906454E-3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3854,19 +3854,19 @@
       </c>
       <c r="D12" s="5">
         <f>[1]!s_dq_preclose(B12,"",1)</f>
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="E12" s="16">
         <f>RTD("wdf.rtq", ,B12, "rt_last","RT_Price")</f>
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" si="0"/>
-        <v>5.4996127033307474E-2</v>
+        <v>4.9573973663826543E-2</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="1"/>
-        <v>8.1421169504070079E-3</v>
+        <v>-2.9433406916851146E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3882,19 +3882,19 @@
       </c>
       <c r="D13" s="5">
         <f>[1]!s_dq_preclose(B13,"",1)</f>
-        <v>8643</v>
+        <v>8690</v>
       </c>
       <c r="E13" s="6">
         <f>RTD("wdf.rtq", ,B13, "rt_last","RT_Price")</f>
-        <v>8670</v>
+        <v>8684</v>
       </c>
       <c r="F13" s="7">
         <f t="shared" si="0"/>
-        <v>4.3572460279248881E-2</v>
+        <v>4.5257583052479511E-2</v>
       </c>
       <c r="G13" s="8">
         <f t="shared" si="1"/>
-        <v>3.1239153071849213E-3</v>
+        <v>-6.9044879171464846E-4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3910,19 +3910,19 @@
       </c>
       <c r="D14" s="5">
         <f>[1]!s_dq_preclose(B14,"",1)</f>
-        <v>5360</v>
+        <v>5343</v>
       </c>
       <c r="E14" s="6">
         <f>RTD("wdf.rtq", ,B14, "rt_last","RT_Price")</f>
-        <v>5344</v>
+        <v>5327</v>
       </c>
       <c r="F14" s="7">
         <f t="shared" si="0"/>
-        <v>5.8846839706756526E-2</v>
+        <v>5.5478502080443803E-2</v>
       </c>
       <c r="G14" s="8">
         <f t="shared" si="1"/>
-        <v>-2.9850746268657025E-3</v>
+        <v>-2.9945723376380018E-3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3938,19 +3938,19 @@
       </c>
       <c r="D15" s="5">
         <f>[1]!s_dq_preclose(B15,"",1)</f>
-        <v>98550</v>
+        <v>98440</v>
       </c>
       <c r="E15" s="6">
         <f>RTD("wdf.rtq", ,B15, "rt_last","RT_Price")</f>
-        <v>98740</v>
+        <v>97930</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>-1.5357000398883103E-2</v>
+        <v>-2.3434383725568386E-2</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="1"/>
-        <v>1.927955352612809E-3</v>
+        <v>-5.1808208045509563E-3</v>
       </c>
       <c r="H15" s="14"/>
     </row>
@@ -3967,19 +3967,19 @@
       </c>
       <c r="D16" s="5">
         <f>[1]!s_dq_preclose(B16,"",1)</f>
-        <v>4616</v>
+        <v>4604</v>
       </c>
       <c r="E16" s="6">
         <f>RTD("wdf.rtq", ,B16, "rt_last","RT_Price")</f>
-        <v>4614</v>
+        <v>4580</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>4.3535045711797782E-3</v>
+        <v>-3.0474531998259113E-3</v>
       </c>
       <c r="G16" s="8">
         <f t="shared" si="1"/>
-        <v>-4.3327556325822858E-4</v>
+        <v>-5.2128583840138631E-3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3995,19 +3995,19 @@
       </c>
       <c r="D17" s="5">
         <f>[1]!s_dq_preclose(B17,"",1)</f>
-        <v>15880</v>
+        <v>15865</v>
       </c>
       <c r="E17" s="6">
         <f>RTD("wdf.rtq", ,B17, "rt_last","RT_Price")</f>
-        <v>15880</v>
+        <v>15710</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>2.4846724749919336E-2</v>
+        <v>1.3875443691513389E-2</v>
       </c>
       <c r="G17" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-9.7699338165774252E-3</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4023,19 +4023,19 @@
       </c>
       <c r="D18" s="5">
         <f>[1]!s_dq_preclose(B18,"",1)</f>
-        <v>5514</v>
+        <v>5504</v>
       </c>
       <c r="E18" s="6">
         <f>RTD("wdf.rtq", ,B18, "rt_last","RT_Price")</f>
-        <v>5516</v>
+        <v>5458</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>-3.6127167630057855E-3</v>
+        <v>-1.4089595375722519E-2</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="1"/>
-        <v>3.6271309394275697E-4</v>
+        <v>-8.3575581395348708E-3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4051,19 +4051,19 @@
       </c>
       <c r="D19" s="5">
         <f>[1]!s_dq_preclose(B19,"",1)</f>
-        <v>14190</v>
+        <v>14185</v>
       </c>
       <c r="E19" s="6">
         <f>RTD("wdf.rtq", ,B19, "rt_last","RT_Price")</f>
-        <v>14185</v>
+        <v>14215</v>
       </c>
       <c r="F19" s="7">
         <f t="shared" si="0"/>
-        <v>3.0512168543407103E-2</v>
+        <v>3.2691609153650658E-2</v>
       </c>
       <c r="G19" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5236081747713754E-4</v>
+        <v>2.1149101163200346E-3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -4079,19 +4079,19 @@
       </c>
       <c r="D20" s="5">
         <f>[1]!s_dq_preclose(B20,"",1)</f>
-        <v>8295</v>
+        <v>8310</v>
       </c>
       <c r="E20" s="6">
         <f>RTD("wdf.rtq", ,B20, "rt_last","RT_Price")</f>
-        <v>8300</v>
+        <v>8290</v>
       </c>
       <c r="F20" s="7">
         <f t="shared" si="0"/>
-        <v>1.2195121951219523E-2</v>
+        <v>1.0975609756097571E-2</v>
       </c>
       <c r="G20" s="8">
         <f t="shared" si="1"/>
-        <v>6.0277275467157665E-4</v>
+        <v>-2.4067388688326918E-3</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -4107,19 +4107,19 @@
       </c>
       <c r="D21" s="5">
         <f>[1]!s_dq_preclose(B21,"",1)</f>
-        <v>2898</v>
+        <v>2911</v>
       </c>
       <c r="E21" s="6">
         <f>RTD("wdf.rtq", ,B21, "rt_last","RT_Price")</f>
-        <v>2906</v>
+        <v>2935</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>3.7486611924312685E-2</v>
+        <v>4.7840057122456203E-2</v>
       </c>
       <c r="G21" s="8">
         <f t="shared" si="1"/>
-        <v>2.760524499654915E-3</v>
+        <v>8.244589488148435E-3</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4135,19 +4135,19 @@
       </c>
       <c r="D22" s="5">
         <f>[1]!s_dq_preclose(B22,"",1)</f>
-        <v>7236</v>
+        <v>7266</v>
       </c>
       <c r="E22" s="6">
         <f>RTD("wdf.rtq", ,B22, "rt_last","RT_Price")</f>
-        <v>7268</v>
+        <v>7182</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>-2.7822364901016639E-2</v>
+        <v>-3.9325842696629199E-2</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="1"/>
-        <v>4.4223327805417156E-3</v>
+        <v>-1.1560693641618491E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4163,19 +4163,19 @@
       </c>
       <c r="D23" s="5">
         <f>[1]!s_dq_preclose(B23,"",1)</f>
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="E23" s="6">
         <f>RTD("wdf.rtq", ,B23, "rt_last","RT_Price")</f>
-        <v>2384</v>
+        <v>2374</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>3.5621198957428213E-2</v>
+        <v>3.1277150304083401E-2</v>
       </c>
       <c r="G23" s="8">
         <f t="shared" si="1"/>
-        <v>-4.1928721174000483E-4</v>
+        <v>-3.3585222502099388E-3</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -4192,19 +4192,19 @@
       </c>
       <c r="D24" s="5">
         <f>[1]!s_dq_preclose(B24,"",1)</f>
-        <v>5396</v>
+        <v>5344</v>
       </c>
       <c r="E24" s="6">
         <f>RTD("wdf.rtq", ,B24, "rt_last","RT_Price")</f>
-        <v>5360</v>
+        <v>5344</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>1.5921152388172821E-2</v>
+        <v>1.2888551933282866E-2</v>
       </c>
       <c r="G24" s="8">
         <f t="shared" si="1"/>
-        <v>-6.6716085989622087E-3</v>
+        <v>0</v>
       </c>
       <c r="H24" s="10"/>
     </row>
@@ -4221,19 +4221,19 @@
       </c>
       <c r="D25" s="5">
         <f>[1]!s_dq_preclose(B25,"",1)</f>
-        <v>5854</v>
+        <v>5912</v>
       </c>
       <c r="E25" s="6">
         <f>RTD("wdf.rtq", ,B25, "rt_last","RT_Price")</f>
-        <v>5914</v>
+        <v>5900</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>1.6937669376693165E-3</v>
+        <v>-6.7750677506772661E-4</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="1"/>
-        <v>1.0249402118209794E-2</v>
+        <v>-2.0297699594046259E-3</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4250,19 +4250,19 @@
       </c>
       <c r="D26" s="5">
         <f>[1]!s_dq_preclose(B26,"",1)</f>
-        <v>2033.5</v>
+        <v>2046</v>
       </c>
       <c r="E26" s="6">
         <f>RTD("wdf.rtq", ,B26, "rt_last","RT_Price")</f>
-        <v>2046.5</v>
+        <v>2042.5</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>5.2185089974293053E-2</v>
+        <v>5.0128534704370287E-2</v>
       </c>
       <c r="G26" s="8">
         <f t="shared" si="1"/>
-        <v>6.3929186132283267E-3</v>
+        <v>-1.7106549364613866E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4278,19 +4278,19 @@
       </c>
       <c r="D27" s="5">
         <f>[1]!s_dq_preclose(B27,"",1)</f>
-        <v>21655</v>
+        <v>21680</v>
       </c>
       <c r="E27" s="16">
         <f>RTD("wdf.rtq", ,B27, "rt_last","RT_Price")</f>
-        <v>21670</v>
+        <v>21420</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" si="0"/>
-        <v>-3.3236671871514578E-2</v>
+        <v>-4.4389917465982642E-2</v>
       </c>
       <c r="G27" s="8">
         <f t="shared" si="1"/>
-        <v>6.9268067420913404E-4</v>
+        <v>-1.1992619926199266E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4306,19 +4306,19 @@
       </c>
       <c r="D28" s="5">
         <f>[1]!s_dq_preclose(B28,"",1)</f>
-        <v>6996</v>
+        <v>6982</v>
       </c>
       <c r="E28" s="6">
         <f>RTD("wdf.rtq", ,B28, "rt_last","RT_Price")</f>
-        <v>7000</v>
+        <v>6846</v>
       </c>
       <c r="F28" s="7">
         <f t="shared" si="0"/>
-        <v>1.0684377707190329E-2</v>
+        <v>-1.1550678602367914E-2</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="1"/>
-        <v>5.7175528873631976E-4</v>
+        <v>-1.9478659409911225E-2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4334,19 +4334,19 @@
       </c>
       <c r="D29" s="5">
         <f>[1]!s_dq_preclose(B29,"",1)</f>
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="E29" s="6">
         <f>RTD("wdf.rtq", ,B29, "rt_last","RT_Price")</f>
-        <v>2611</v>
+        <v>2605</v>
       </c>
       <c r="F29" s="7">
         <f t="shared" si="0"/>
-        <v>1.5163297045100999E-2</v>
+        <v>1.2830482115085529E-2</v>
       </c>
       <c r="G29" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-2.6799387442573153E-3</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4362,7 +4362,7 @@
       </c>
       <c r="D30" s="5">
         <f>[1]!s_dq_preclose(B30,"",1)</f>
-        <v>16575</v>
+        <v>16500</v>
       </c>
       <c r="E30" s="6">
         <f>RTD("wdf.rtq", ,B30, "rt_last","RT_Price")</f>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="G30" s="8">
         <f t="shared" si="1"/>
-        <v>-4.5248868778280382E-3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9"/>
     </row>
@@ -4392,19 +4392,19 @@
       </c>
       <c r="D31" s="5">
         <f>[1]!s_dq_preclose(B31,"",1)</f>
-        <v>1330.5</v>
+        <v>1337.5</v>
       </c>
       <c r="E31" s="6">
         <f>RTD("wdf.rtq", ,B31, "rt_last","RT_Price")</f>
-        <v>1341.5</v>
+        <v>1346.5</v>
       </c>
       <c r="F31" s="7">
         <f t="shared" si="0"/>
-        <v>1.7830045523520521E-2</v>
+        <v>2.1623672230652424E-2</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="1"/>
-        <v>8.2675685832394041E-3</v>
+        <v>6.7289719626169031E-3</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4420,19 +4420,19 @@
       </c>
       <c r="D32" s="5">
         <f>[1]!s_dq_preclose(B32,"",1)</f>
-        <v>2226</v>
+        <v>2221</v>
       </c>
       <c r="E32" s="6">
         <f>RTD("wdf.rtq", ,B32, "rt_last","RT_Price")</f>
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="F32" s="7">
         <f t="shared" si="0"/>
-        <v>1.9266055045871644E-2</v>
+        <v>1.6972477064220115E-2</v>
       </c>
       <c r="G32" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7969451931716396E-3</v>
+        <v>-1.8009905447996521E-3</v>
       </c>
       <c r="H32" s="11"/>
     </row>
@@ -4449,19 +4449,19 @@
       </c>
       <c r="D33" s="5">
         <f>[1]!s_dq_preclose(B33,"",1)</f>
-        <v>49250</v>
+        <v>49160</v>
       </c>
       <c r="E33" s="6">
         <f>RTD("wdf.rtq", ,B33, "rt_last","RT_Price")</f>
-        <v>49200</v>
+        <v>49190</v>
       </c>
       <c r="F33" s="7">
         <f t="shared" si="0"/>
-        <v>5.7236304170074082E-3</v>
+        <v>5.5192150449714372E-3</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0152284263958977E-3</v>
+        <v>6.1025223759147984E-4</v>
       </c>
       <c r="H33" s="13"/>
     </row>
